--- a/xll_isda_cds.xlsx
+++ b/xll_isda_cds.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>valuation</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>curve</t>
+  </si>
+  <si>
+    <t>Swaps</t>
   </si>
 </sst>
 </file>
@@ -493,307 +496,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>2.0478448334503074E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0478448334503074E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0474267436035642E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0469157472281951E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0466602500000652E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0463680837564002E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0454789698161502E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0448438931731427E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.044367588284568E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0439971304638371E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0437007651755934E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0434582851255101E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.0432562188571479E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.0430852400195709E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.0427613024535551E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0420666625551975E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.0414588565231151E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.0409225600895198E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.0404458545148163E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.0400193303620195E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.0396354601488254E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0392881502479199E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.0389724150001953E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.038684135844604E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.0384198806674636E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.0381767665089034E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.0379523539536093E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.0592263222033669E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.1307996955052699E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.1974820941392137E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.2597582796606508E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.3180510020804235E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.3727306081338773E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.4241229168024958E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.472515716004775E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.518164154103264E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.5612952395183575E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.6021116159604007E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.640794745774655E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.677507606904217E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.7123969880160193E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.7455954499474577E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.777223008731533E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.807388585242232E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.8361912583625637E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.8637213520563698E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.8900613814721421E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.9152868789543929E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.939467117378558E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.9626657453969418E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.984941346862735E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.006347934783693E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.0269353885741923E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>3.0411648950081638E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1841,9 +1844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1865,16 +1866,16 @@
         <v>6</v>
       </c>
       <c r="C3" s="3">
-        <f>_xll.JPMCDS.BUILD.IR.ZERO.CURVE(C2, F6:F10, 0)</f>
-        <v>-6.9769393230427442E+69</v>
+        <f>_xll.JPMCDS.BUILD.IR.ZERO.CURVE(C2, F6:F10, F15:F17)</f>
+        <v>-1.2560591625415323E-149</v>
       </c>
       <c r="H3" s="1">
         <f>C2</f>
         <v>43622</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H3)</f>
-        <v>2.0478448334503074E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -1882,9 +1883,9 @@
         <f>H3+7</f>
         <v>43629</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H4)</f>
-        <v>2.0478448334503074E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -1898,9 +1899,9 @@
         <f t="shared" ref="H5:H68" si="0">H4+7</f>
         <v>43636</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H5)</f>
-        <v>2.0474267436035642E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -1912,22 +1913,22 @@
       </c>
       <c r="D6">
         <f>_xll.JPMCDS.INSTRUMENT.MONEY.MARKET(B6, C6)</f>
-        <v>-1.257860542918497E+70</v>
+        <v>-2.3756251363378417E-163</v>
       </c>
       <c r="E6">
         <v>0.02</v>
       </c>
       <c r="F6">
-        <f>_xll.DEPENDS(_xll.JPMCDS.INSTRUMENT.MONEY.MARKET.SET(D6, E6, $C$2),D6)</f>
-        <v>-1.257860542918497E+70</v>
+        <f>_xll.JPMCDS.INSTRUMENT.MONEY.MARKET.SET(D6, E6, $C$2)</f>
+        <v>-2.3756251363378417E-163</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="0"/>
         <v>43643</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H6)</f>
-        <v>2.0469157472281951E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -1939,22 +1940,22 @@
       </c>
       <c r="D7">
         <f>_xll.JPMCDS.INSTRUMENT.MONEY.MARKET(B7, C7)</f>
-        <v>-1.2576077934184924E+70</v>
+        <v>-2.3734205568896524E-163</v>
       </c>
       <c r="E7">
         <v>0.02</v>
       </c>
       <c r="F7">
-        <f>_xll.DEPENDS(_xll.JPMCDS.INSTRUMENT.MONEY.MARKET.SET(D7, E7, $C$2),D7)</f>
-        <v>-1.2576077934184924E+70</v>
+        <f>_xll.JPMCDS.INSTRUMENT.MONEY.MARKET.SET(D7, E7, $C$2)</f>
+        <v>-2.3734205568896524E-163</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="0"/>
         <v>43650</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H7)</f>
-        <v>2.0466602500000652E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -1966,22 +1967,22 @@
       </c>
       <c r="D8">
         <f>_xll.JPMCDS.INSTRUMENT.MONEY.MARKET(B8, C8)</f>
-        <v>-1.2617360352518999E+70</v>
+        <v>-2.3751163872344134E-163</v>
       </c>
       <c r="E8">
         <v>0.02</v>
       </c>
       <c r="F8">
-        <f>_xll.DEPENDS(_xll.JPMCDS.INSTRUMENT.MONEY.MARKET.SET(D8, E8, $C$2),D8)</f>
-        <v>-1.2617360352518999E+70</v>
+        <f>_xll.JPMCDS.INSTRUMENT.MONEY.MARKET.SET(D8, E8, $C$2)</f>
+        <v>-2.3751163872344134E-163</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="0"/>
         <v>43657</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H8)</f>
-        <v>2.0463680837564002E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -1993,22 +1994,22 @@
       </c>
       <c r="D9">
         <f>_xll.JPMCDS.INSTRUMENT.MONEY.MARKET(B9, C9)</f>
-        <v>-1.2570180445851485E+70</v>
+        <v>-2.3810517934410767E-163</v>
       </c>
       <c r="E9">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F9">
-        <f>_xll.DEPENDS(_xll.JPMCDS.INSTRUMENT.MONEY.MARKET.SET(D9, E9, $C$2),D9)</f>
-        <v>-1.2570180445851485E+70</v>
+        <f>_xll.JPMCDS.INSTRUMENT.MONEY.MARKET.SET(D9, E9, $C$2)</f>
+        <v>-2.3810517934410767E-163</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="0"/>
         <v>43664</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H9)</f>
-        <v>2.0454789698161502E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
@@ -2020,22 +2021,22 @@
       </c>
       <c r="D10">
         <f>_xll.JPMCDS.INSTRUMENT.MONEY.MARKET(B10, C10)</f>
-        <v>-1.2568495449184788E+70</v>
+        <v>-2.3754555533033656E-163</v>
       </c>
       <c r="E10">
         <v>0.03</v>
       </c>
       <c r="F10">
-        <f>_xll.DEPENDS(_xll.JPMCDS.INSTRUMENT.MONEY.MARKET.SET(D10, E10, $C$2),D10)</f>
-        <v>-1.2568495449184788E+70</v>
+        <f>_xll.JPMCDS.INSTRUMENT.MONEY.MARKET.SET(D10, E10, $C$2)</f>
+        <v>-2.3754555533033656E-163</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="0"/>
         <v>43671</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H10)</f>
-        <v>2.0448438931731427E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -2043,9 +2044,9 @@
         <f t="shared" si="0"/>
         <v>43678</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H11)</f>
-        <v>2.044367588284568E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -2053,9 +2054,9 @@
         <f t="shared" si="0"/>
         <v>43685</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H12)</f>
-        <v>2.0439971304638371E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -2063,199 +2064,253 @@
         <f t="shared" si="0"/>
         <v>43692</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H13)</f>
-        <v>2.0437007651755934E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
       <c r="H14" s="1">
         <f t="shared" si="0"/>
         <v>43699</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H14)</f>
-        <v>2.0434582851255101E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <f>_xll.JPMCDS.INSTRUMENT.INTEREST.RATE.SWAP(B15,C15)</f>
+        <v>-5.0463671484227084E-163</v>
+      </c>
+      <c r="E15">
+        <v>0.03</v>
+      </c>
+      <c r="F15">
+        <f>_xll.JPMCDS.INSTRUMENT.INTEREST.RATE.SWAP.SET(D15, E15, $C$2)</f>
+        <v>-5.0463671484227084E-163</v>
+      </c>
       <c r="H15" s="1">
         <f t="shared" si="0"/>
         <v>43706</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H15)</f>
-        <v>2.0432562188571479E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <f>_xll.JPMCDS.INSTRUMENT.INTEREST.RATE.SWAP(B16,C16)</f>
+        <v>-5.0524721376638478E-163</v>
+      </c>
+      <c r="E16">
+        <v>0.03</v>
+      </c>
+      <c r="F16">
+        <f>_xll.JPMCDS.INSTRUMENT.INTEREST.RATE.SWAP.SET(D16, E16, $C$2)</f>
+        <v>-5.0524721376638478E-163</v>
+      </c>
       <c r="H16" s="1">
         <f t="shared" si="0"/>
         <v>43713</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H16)</f>
-        <v>2.0430852400195709E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <f>_xll.JPMCDS.INSTRUMENT.INTEREST.RATE.SWAP(B17,C17)</f>
+        <v>-5.0448409011124235E-163</v>
+      </c>
+      <c r="E17">
+        <v>0.03</v>
+      </c>
+      <c r="F17">
+        <f>_xll.JPMCDS.INSTRUMENT.INTEREST.RATE.SWAP.SET(D17, E17, $C$2)</f>
+        <v>-5.0448409011124235E-163</v>
+      </c>
       <c r="H17" s="1">
         <f t="shared" si="0"/>
         <v>43720</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H17)</f>
-        <v>2.0427613024535551E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H18" s="1">
         <f t="shared" si="0"/>
         <v>43727</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H18)</f>
-        <v>2.0420666625551975E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H19" s="1">
         <f t="shared" si="0"/>
         <v>43734</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H19)</f>
-        <v>2.0414588565231151E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H20" s="1">
         <f t="shared" si="0"/>
         <v>43741</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H20)</f>
-        <v>2.0409225600895198E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H21" s="1">
         <f t="shared" si="0"/>
         <v>43748</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H21)</f>
-        <v>2.0404458545148163E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.25">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H22" s="1">
         <f t="shared" si="0"/>
         <v>43755</v>
       </c>
-      <c r="I22">
+      <c r="I22" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H22)</f>
-        <v>2.0400193303620195E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.25">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H23" s="1">
         <f t="shared" si="0"/>
         <v>43762</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H23)</f>
-        <v>2.0396354601488254E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.25">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H24" s="1">
         <f t="shared" si="0"/>
         <v>43769</v>
       </c>
-      <c r="I24">
+      <c r="I24" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H24)</f>
-        <v>2.0392881502479199E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="8:9" x14ac:dyDescent="0.25">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H25" s="1">
         <f t="shared" si="0"/>
         <v>43776</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H25)</f>
-        <v>2.0389724150001953E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="8:9" x14ac:dyDescent="0.25">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H26" s="1">
         <f t="shared" si="0"/>
         <v>43783</v>
       </c>
-      <c r="I26">
+      <c r="I26" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H26)</f>
-        <v>2.038684135844604E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="8:9" x14ac:dyDescent="0.25">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H27" s="1">
         <f t="shared" si="0"/>
         <v>43790</v>
       </c>
-      <c r="I27">
+      <c r="I27" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H27)</f>
-        <v>2.0384198806674636E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="8:9" x14ac:dyDescent="0.25">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H28" s="1">
         <f t="shared" si="0"/>
         <v>43797</v>
       </c>
-      <c r="I28">
+      <c r="I28" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H28)</f>
-        <v>2.0381767665089034E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="8:9" x14ac:dyDescent="0.25">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H29" s="1">
         <f t="shared" si="0"/>
         <v>43804</v>
       </c>
-      <c r="I29">
+      <c r="I29" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H29)</f>
-        <v>2.0379523539536093E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="8:9" x14ac:dyDescent="0.25">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H30" s="1">
         <f t="shared" si="0"/>
         <v>43811</v>
       </c>
-      <c r="I30">
+      <c r="I30" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H30)</f>
-        <v>2.0592263222033669E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="8:9" x14ac:dyDescent="0.25">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H31" s="1">
         <f t="shared" si="0"/>
         <v>43818</v>
       </c>
-      <c r="I31">
+      <c r="I31" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H31)</f>
-        <v>2.1307996955052699E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="8:9" x14ac:dyDescent="0.25">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H32" s="1">
         <f t="shared" si="0"/>
         <v>43825</v>
       </c>
-      <c r="I32">
+      <c r="I32" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H32)</f>
-        <v>2.1974820941392137E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="33" spans="8:9" x14ac:dyDescent="0.25">
@@ -2263,9 +2318,9 @@
         <f t="shared" si="0"/>
         <v>43832</v>
       </c>
-      <c r="I33">
+      <c r="I33" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H33)</f>
-        <v>2.2597582796606508E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="34" spans="8:9" x14ac:dyDescent="0.25">
@@ -2273,9 +2328,9 @@
         <f t="shared" si="0"/>
         <v>43839</v>
       </c>
-      <c r="I34">
+      <c r="I34" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H34)</f>
-        <v>2.3180510020804235E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="35" spans="8:9" x14ac:dyDescent="0.25">
@@ -2283,9 +2338,9 @@
         <f t="shared" si="0"/>
         <v>43846</v>
       </c>
-      <c r="I35">
+      <c r="I35" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H35)</f>
-        <v>2.3727306081338773E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="36" spans="8:9" x14ac:dyDescent="0.25">
@@ -2293,9 +2348,9 @@
         <f t="shared" si="0"/>
         <v>43853</v>
       </c>
-      <c r="I36">
+      <c r="I36" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H36)</f>
-        <v>2.4241229168024958E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="37" spans="8:9" x14ac:dyDescent="0.25">
@@ -2303,9 +2358,9 @@
         <f t="shared" si="0"/>
         <v>43860</v>
       </c>
-      <c r="I37">
+      <c r="I37" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H37)</f>
-        <v>2.472515716004775E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="38" spans="8:9" x14ac:dyDescent="0.25">
@@ -2313,9 +2368,9 @@
         <f t="shared" si="0"/>
         <v>43867</v>
       </c>
-      <c r="I38">
+      <c r="I38" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H38)</f>
-        <v>2.518164154103264E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="39" spans="8:9" x14ac:dyDescent="0.25">
@@ -2323,9 +2378,9 @@
         <f t="shared" si="0"/>
         <v>43874</v>
       </c>
-      <c r="I39">
+      <c r="I39" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H39)</f>
-        <v>2.5612952395183575E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="40" spans="8:9" x14ac:dyDescent="0.25">
@@ -2333,9 +2388,9 @@
         <f t="shared" si="0"/>
         <v>43881</v>
       </c>
-      <c r="I40">
+      <c r="I40" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H40)</f>
-        <v>2.6021116159604007E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="41" spans="8:9" x14ac:dyDescent="0.25">
@@ -2343,9 +2398,9 @@
         <f t="shared" si="0"/>
         <v>43888</v>
       </c>
-      <c r="I41">
+      <c r="I41" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H41)</f>
-        <v>2.640794745774655E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="42" spans="8:9" x14ac:dyDescent="0.25">
@@ -2353,9 +2408,9 @@
         <f t="shared" si="0"/>
         <v>43895</v>
       </c>
-      <c r="I42">
+      <c r="I42" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H42)</f>
-        <v>2.677507606904217E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="43" spans="8:9" x14ac:dyDescent="0.25">
@@ -2363,9 +2418,9 @@
         <f t="shared" si="0"/>
         <v>43902</v>
       </c>
-      <c r="I43">
+      <c r="I43" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H43)</f>
-        <v>2.7123969880160193E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="44" spans="8:9" x14ac:dyDescent="0.25">
@@ -2373,9 +2428,9 @@
         <f t="shared" si="0"/>
         <v>43909</v>
       </c>
-      <c r="I44">
+      <c r="I44" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H44)</f>
-        <v>2.7455954499474577E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="45" spans="8:9" x14ac:dyDescent="0.25">
@@ -2383,9 +2438,9 @@
         <f t="shared" si="0"/>
         <v>43916</v>
       </c>
-      <c r="I45">
+      <c r="I45" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H45)</f>
-        <v>2.777223008731533E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="46" spans="8:9" x14ac:dyDescent="0.25">
@@ -2393,9 +2448,9 @@
         <f t="shared" si="0"/>
         <v>43923</v>
       </c>
-      <c r="I46">
+      <c r="I46" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H46)</f>
-        <v>2.807388585242232E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="47" spans="8:9" x14ac:dyDescent="0.25">
@@ -2403,9 +2458,9 @@
         <f t="shared" si="0"/>
         <v>43930</v>
       </c>
-      <c r="I47">
+      <c r="I47" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H47)</f>
-        <v>2.8361912583625637E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="48" spans="8:9" x14ac:dyDescent="0.25">
@@ -2413,9 +2468,9 @@
         <f t="shared" si="0"/>
         <v>43937</v>
       </c>
-      <c r="I48">
+      <c r="I48" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H48)</f>
-        <v>2.8637213520563698E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="49" spans="8:9" x14ac:dyDescent="0.25">
@@ -2423,9 +2478,9 @@
         <f t="shared" si="0"/>
         <v>43944</v>
       </c>
-      <c r="I49">
+      <c r="I49" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H49)</f>
-        <v>2.8900613814721421E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="50" spans="8:9" x14ac:dyDescent="0.25">
@@ -2433,9 +2488,9 @@
         <f t="shared" si="0"/>
         <v>43951</v>
       </c>
-      <c r="I50">
+      <c r="I50" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H50)</f>
-        <v>2.9152868789543929E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="51" spans="8:9" x14ac:dyDescent="0.25">
@@ -2443,9 +2498,9 @@
         <f t="shared" si="0"/>
         <v>43958</v>
       </c>
-      <c r="I51">
+      <c r="I51" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H51)</f>
-        <v>2.939467117378558E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="52" spans="8:9" x14ac:dyDescent="0.25">
@@ -2453,9 +2508,9 @@
         <f t="shared" si="0"/>
         <v>43965</v>
       </c>
-      <c r="I52">
+      <c r="I52" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H52)</f>
-        <v>2.9626657453969418E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="53" spans="8:9" x14ac:dyDescent="0.25">
@@ -2463,9 +2518,9 @@
         <f t="shared" si="0"/>
         <v>43972</v>
       </c>
-      <c r="I53">
+      <c r="I53" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H53)</f>
-        <v>2.984941346862735E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="54" spans="8:9" x14ac:dyDescent="0.25">
@@ -2473,9 +2528,9 @@
         <f t="shared" si="0"/>
         <v>43979</v>
       </c>
-      <c r="I54">
+      <c r="I54" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H54)</f>
-        <v>3.006347934783693E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="55" spans="8:9" x14ac:dyDescent="0.25">
@@ -2483,9 +2538,9 @@
         <f t="shared" si="0"/>
         <v>43986</v>
       </c>
-      <c r="I55">
+      <c r="I55" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H55)</f>
-        <v>3.0269353885741923E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="56" spans="8:9" x14ac:dyDescent="0.25">
@@ -2493,9 +2548,9 @@
         <f t="shared" si="0"/>
         <v>43993</v>
       </c>
-      <c r="I56">
+      <c r="I56" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H56)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="57" spans="8:9" x14ac:dyDescent="0.25">
@@ -2503,9 +2558,9 @@
         <f t="shared" si="0"/>
         <v>44000</v>
       </c>
-      <c r="I57">
+      <c r="I57" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H57)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="58" spans="8:9" x14ac:dyDescent="0.25">
@@ -2513,9 +2568,9 @@
         <f t="shared" si="0"/>
         <v>44007</v>
       </c>
-      <c r="I58">
+      <c r="I58" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H58)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="59" spans="8:9" x14ac:dyDescent="0.25">
@@ -2523,9 +2578,9 @@
         <f t="shared" si="0"/>
         <v>44014</v>
       </c>
-      <c r="I59">
+      <c r="I59" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H59)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="60" spans="8:9" x14ac:dyDescent="0.25">
@@ -2533,9 +2588,9 @@
         <f t="shared" si="0"/>
         <v>44021</v>
       </c>
-      <c r="I60">
+      <c r="I60" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H60)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="61" spans="8:9" x14ac:dyDescent="0.25">
@@ -2543,9 +2598,9 @@
         <f t="shared" si="0"/>
         <v>44028</v>
       </c>
-      <c r="I61">
+      <c r="I61" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H61)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="62" spans="8:9" x14ac:dyDescent="0.25">
@@ -2553,9 +2608,9 @@
         <f t="shared" si="0"/>
         <v>44035</v>
       </c>
-      <c r="I62">
+      <c r="I62" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H62)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="63" spans="8:9" x14ac:dyDescent="0.25">
@@ -2563,9 +2618,9 @@
         <f t="shared" si="0"/>
         <v>44042</v>
       </c>
-      <c r="I63">
+      <c r="I63" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H63)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="64" spans="8:9" x14ac:dyDescent="0.25">
@@ -2573,9 +2628,9 @@
         <f t="shared" si="0"/>
         <v>44049</v>
       </c>
-      <c r="I64">
+      <c r="I64" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H64)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="65" spans="8:9" x14ac:dyDescent="0.25">
@@ -2583,9 +2638,9 @@
         <f t="shared" si="0"/>
         <v>44056</v>
       </c>
-      <c r="I65">
+      <c r="I65" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H65)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="66" spans="8:9" x14ac:dyDescent="0.25">
@@ -2593,9 +2648,9 @@
         <f t="shared" si="0"/>
         <v>44063</v>
       </c>
-      <c r="I66">
+      <c r="I66" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H66)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="67" spans="8:9" x14ac:dyDescent="0.25">
@@ -2603,9 +2658,9 @@
         <f t="shared" si="0"/>
         <v>44070</v>
       </c>
-      <c r="I67">
+      <c r="I67" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H67)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="68" spans="8:9" x14ac:dyDescent="0.25">
@@ -2613,9 +2668,9 @@
         <f t="shared" si="0"/>
         <v>44077</v>
       </c>
-      <c r="I68">
+      <c r="I68" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H68)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="69" spans="8:9" x14ac:dyDescent="0.25">
@@ -2623,9 +2678,9 @@
         <f t="shared" ref="H69:H103" si="1">H68+7</f>
         <v>44084</v>
       </c>
-      <c r="I69">
+      <c r="I69" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H69)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="70" spans="8:9" x14ac:dyDescent="0.25">
@@ -2633,9 +2688,9 @@
         <f t="shared" si="1"/>
         <v>44091</v>
       </c>
-      <c r="I70">
+      <c r="I70" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H70)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="71" spans="8:9" x14ac:dyDescent="0.25">
@@ -2643,9 +2698,9 @@
         <f t="shared" si="1"/>
         <v>44098</v>
       </c>
-      <c r="I71">
+      <c r="I71" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H71)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="72" spans="8:9" x14ac:dyDescent="0.25">
@@ -2653,9 +2708,9 @@
         <f t="shared" si="1"/>
         <v>44105</v>
       </c>
-      <c r="I72">
+      <c r="I72" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H72)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="73" spans="8:9" x14ac:dyDescent="0.25">
@@ -2663,9 +2718,9 @@
         <f t="shared" si="1"/>
         <v>44112</v>
       </c>
-      <c r="I73">
+      <c r="I73" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H73)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="74" spans="8:9" x14ac:dyDescent="0.25">
@@ -2673,9 +2728,9 @@
         <f t="shared" si="1"/>
         <v>44119</v>
       </c>
-      <c r="I74">
+      <c r="I74" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H74)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="75" spans="8:9" x14ac:dyDescent="0.25">
@@ -2683,9 +2738,9 @@
         <f t="shared" si="1"/>
         <v>44126</v>
       </c>
-      <c r="I75">
+      <c r="I75" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H75)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="76" spans="8:9" x14ac:dyDescent="0.25">
@@ -2693,9 +2748,9 @@
         <f t="shared" si="1"/>
         <v>44133</v>
       </c>
-      <c r="I76">
+      <c r="I76" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H76)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="77" spans="8:9" x14ac:dyDescent="0.25">
@@ -2703,9 +2758,9 @@
         <f t="shared" si="1"/>
         <v>44140</v>
       </c>
-      <c r="I77">
+      <c r="I77" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H77)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="78" spans="8:9" x14ac:dyDescent="0.25">
@@ -2713,9 +2768,9 @@
         <f t="shared" si="1"/>
         <v>44147</v>
       </c>
-      <c r="I78">
+      <c r="I78" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H78)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="79" spans="8:9" x14ac:dyDescent="0.25">
@@ -2723,9 +2778,9 @@
         <f t="shared" si="1"/>
         <v>44154</v>
       </c>
-      <c r="I79">
+      <c r="I79" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H79)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="80" spans="8:9" x14ac:dyDescent="0.25">
@@ -2733,9 +2788,9 @@
         <f t="shared" si="1"/>
         <v>44161</v>
       </c>
-      <c r="I80">
+      <c r="I80" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H80)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="81" spans="8:9" x14ac:dyDescent="0.25">
@@ -2743,9 +2798,9 @@
         <f t="shared" si="1"/>
         <v>44168</v>
       </c>
-      <c r="I81">
+      <c r="I81" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H81)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="82" spans="8:9" x14ac:dyDescent="0.25">
@@ -2753,9 +2808,9 @@
         <f t="shared" si="1"/>
         <v>44175</v>
       </c>
-      <c r="I82">
+      <c r="I82" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H82)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="83" spans="8:9" x14ac:dyDescent="0.25">
@@ -2763,9 +2818,9 @@
         <f t="shared" si="1"/>
         <v>44182</v>
       </c>
-      <c r="I83">
+      <c r="I83" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H83)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="84" spans="8:9" x14ac:dyDescent="0.25">
@@ -2773,9 +2828,9 @@
         <f t="shared" si="1"/>
         <v>44189</v>
       </c>
-      <c r="I84">
+      <c r="I84" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H84)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="85" spans="8:9" x14ac:dyDescent="0.25">
@@ -2783,9 +2838,9 @@
         <f t="shared" si="1"/>
         <v>44196</v>
       </c>
-      <c r="I85">
+      <c r="I85" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H85)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="86" spans="8:9" x14ac:dyDescent="0.25">
@@ -2793,9 +2848,9 @@
         <f t="shared" si="1"/>
         <v>44203</v>
       </c>
-      <c r="I86">
+      <c r="I86" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H86)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="87" spans="8:9" x14ac:dyDescent="0.25">
@@ -2803,9 +2858,9 @@
         <f t="shared" si="1"/>
         <v>44210</v>
       </c>
-      <c r="I87">
+      <c r="I87" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H87)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="88" spans="8:9" x14ac:dyDescent="0.25">
@@ -2813,9 +2868,9 @@
         <f t="shared" si="1"/>
         <v>44217</v>
       </c>
-      <c r="I88">
+      <c r="I88" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H88)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="89" spans="8:9" x14ac:dyDescent="0.25">
@@ -2823,9 +2878,9 @@
         <f t="shared" si="1"/>
         <v>44224</v>
       </c>
-      <c r="I89">
+      <c r="I89" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H89)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="90" spans="8:9" x14ac:dyDescent="0.25">
@@ -2833,9 +2888,9 @@
         <f t="shared" si="1"/>
         <v>44231</v>
       </c>
-      <c r="I90">
+      <c r="I90" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H90)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="91" spans="8:9" x14ac:dyDescent="0.25">
@@ -2843,9 +2898,9 @@
         <f t="shared" si="1"/>
         <v>44238</v>
       </c>
-      <c r="I91">
+      <c r="I91" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H91)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="92" spans="8:9" x14ac:dyDescent="0.25">
@@ -2853,9 +2908,9 @@
         <f t="shared" si="1"/>
         <v>44245</v>
       </c>
-      <c r="I92">
+      <c r="I92" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H92)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="93" spans="8:9" x14ac:dyDescent="0.25">
@@ -2863,9 +2918,9 @@
         <f t="shared" si="1"/>
         <v>44252</v>
       </c>
-      <c r="I93">
+      <c r="I93" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H93)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="94" spans="8:9" x14ac:dyDescent="0.25">
@@ -2873,9 +2928,9 @@
         <f t="shared" si="1"/>
         <v>44259</v>
       </c>
-      <c r="I94">
+      <c r="I94" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H94)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="95" spans="8:9" x14ac:dyDescent="0.25">
@@ -2883,9 +2938,9 @@
         <f t="shared" si="1"/>
         <v>44266</v>
       </c>
-      <c r="I95">
+      <c r="I95" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H95)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="96" spans="8:9" x14ac:dyDescent="0.25">
@@ -2893,9 +2948,9 @@
         <f t="shared" si="1"/>
         <v>44273</v>
       </c>
-      <c r="I96">
+      <c r="I96" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H96)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="97" spans="8:9" x14ac:dyDescent="0.25">
@@ -2903,9 +2958,9 @@
         <f t="shared" si="1"/>
         <v>44280</v>
       </c>
-      <c r="I97">
+      <c r="I97" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H97)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="98" spans="8:9" x14ac:dyDescent="0.25">
@@ -2913,9 +2968,9 @@
         <f t="shared" si="1"/>
         <v>44287</v>
       </c>
-      <c r="I98">
+      <c r="I98" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H98)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="99" spans="8:9" x14ac:dyDescent="0.25">
@@ -2923,9 +2978,9 @@
         <f t="shared" si="1"/>
         <v>44294</v>
       </c>
-      <c r="I99">
+      <c r="I99" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H99)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="100" spans="8:9" x14ac:dyDescent="0.25">
@@ -2933,9 +2988,9 @@
         <f t="shared" si="1"/>
         <v>44301</v>
       </c>
-      <c r="I100">
+      <c r="I100" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H100)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="101" spans="8:9" x14ac:dyDescent="0.25">
@@ -2943,9 +2998,9 @@
         <f t="shared" si="1"/>
         <v>44308</v>
       </c>
-      <c r="I101">
+      <c r="I101" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H101)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="102" spans="8:9" x14ac:dyDescent="0.25">
@@ -2953,9 +3008,9 @@
         <f t="shared" si="1"/>
         <v>44315</v>
       </c>
-      <c r="I102">
+      <c r="I102" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H102)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="103" spans="8:9" x14ac:dyDescent="0.25">
@@ -2963,9 +3018,9 @@
         <f t="shared" si="1"/>
         <v>44322</v>
       </c>
-      <c r="I103">
+      <c r="I103" t="e">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H103)</f>
-        <v>3.0411648950081638E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>

--- a/xll_isda_cds.xlsx
+++ b/xll_isda_cds.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalx\source\repos\isda_cds_model\xll_isda_cds\xll_isda_cds\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\Source\Repos\keithalewis\xll_isda_cds\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600CF9DB-1D00-494A-9076-88CA257C077E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="1620" windowWidth="21600" windowHeight="11835"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,11 +24,35 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -59,7 +85,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -126,7 +152,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -184,307 +209,307 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>43622</c:v>
+                  <c:v>43619</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43629</c:v>
+                  <c:v>43649</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43636</c:v>
+                  <c:v>43679</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43643</c:v>
+                  <c:v>43709</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43650</c:v>
+                  <c:v>43739</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43657</c:v>
+                  <c:v>43769</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43664</c:v>
+                  <c:v>43799</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43671</c:v>
+                  <c:v>43829</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43678</c:v>
+                  <c:v>43859</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43685</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43692</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43699</c:v>
+                  <c:v>43949</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43706</c:v>
+                  <c:v>43979</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43713</c:v>
+                  <c:v>44009</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43720</c:v>
+                  <c:v>44039</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43727</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43734</c:v>
+                  <c:v>44099</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43741</c:v>
+                  <c:v>44129</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43748</c:v>
+                  <c:v>44159</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43755</c:v>
+                  <c:v>44189</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43762</c:v>
+                  <c:v>44219</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43769</c:v>
+                  <c:v>44249</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43776</c:v>
+                  <c:v>44279</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43783</c:v>
+                  <c:v>44309</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43790</c:v>
+                  <c:v>44339</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43797</c:v>
+                  <c:v>44369</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43804</c:v>
+                  <c:v>44399</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43811</c:v>
+                  <c:v>44429</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43818</c:v>
+                  <c:v>44459</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43825</c:v>
+                  <c:v>44489</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43832</c:v>
+                  <c:v>44519</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43839</c:v>
+                  <c:v>44549</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43846</c:v>
+                  <c:v>44579</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43853</c:v>
+                  <c:v>44609</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43860</c:v>
+                  <c:v>44639</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43867</c:v>
+                  <c:v>44669</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43874</c:v>
+                  <c:v>44699</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43881</c:v>
+                  <c:v>44729</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43888</c:v>
+                  <c:v>44759</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43895</c:v>
+                  <c:v>44789</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>43902</c:v>
+                  <c:v>44819</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43909</c:v>
+                  <c:v>44849</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43916</c:v>
+                  <c:v>44879</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43923</c:v>
+                  <c:v>44909</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43930</c:v>
+                  <c:v>44939</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>43937</c:v>
+                  <c:v>44969</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>43944</c:v>
+                  <c:v>44999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>43951</c:v>
+                  <c:v>45029</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>43958</c:v>
+                  <c:v>45059</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>43965</c:v>
+                  <c:v>45089</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>43972</c:v>
+                  <c:v>45119</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>43979</c:v>
+                  <c:v>45149</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>43986</c:v>
+                  <c:v>45179</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>43993</c:v>
+                  <c:v>45209</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>44000</c:v>
+                  <c:v>45239</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>44007</c:v>
+                  <c:v>45269</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>44014</c:v>
+                  <c:v>45299</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>44021</c:v>
+                  <c:v>45329</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>44028</c:v>
+                  <c:v>45359</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>44035</c:v>
+                  <c:v>45389</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>44042</c:v>
+                  <c:v>45419</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>44049</c:v>
+                  <c:v>45449</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>44056</c:v>
+                  <c:v>45479</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>44063</c:v>
+                  <c:v>45509</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>44070</c:v>
+                  <c:v>45539</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>44077</c:v>
+                  <c:v>45569</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>44084</c:v>
+                  <c:v>45599</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>44091</c:v>
+                  <c:v>45629</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>44098</c:v>
+                  <c:v>45659</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>44105</c:v>
+                  <c:v>45689</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>44112</c:v>
+                  <c:v>45719</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>44119</c:v>
+                  <c:v>45749</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>44126</c:v>
+                  <c:v>45779</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>44133</c:v>
+                  <c:v>45809</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>44140</c:v>
+                  <c:v>45839</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>44147</c:v>
+                  <c:v>45869</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>44154</c:v>
+                  <c:v>45899</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>44161</c:v>
+                  <c:v>45929</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>44168</c:v>
+                  <c:v>45959</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>44175</c:v>
+                  <c:v>45989</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>44182</c:v>
+                  <c:v>46019</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>44189</c:v>
+                  <c:v>46049</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>44196</c:v>
+                  <c:v>46079</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>44203</c:v>
+                  <c:v>46109</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>44210</c:v>
+                  <c:v>46139</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>44217</c:v>
+                  <c:v>46169</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>44224</c:v>
+                  <c:v>46199</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>44231</c:v>
+                  <c:v>46229</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>44238</c:v>
+                  <c:v>46259</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>44245</c:v>
+                  <c:v>46289</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>44252</c:v>
+                  <c:v>46319</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>44259</c:v>
+                  <c:v>46349</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>44266</c:v>
+                  <c:v>46379</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>44273</c:v>
+                  <c:v>46409</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>44280</c:v>
+                  <c:v>46439</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>44287</c:v>
+                  <c:v>46469</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>44294</c:v>
+                  <c:v>46499</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>44301</c:v>
+                  <c:v>46529</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>44308</c:v>
+                  <c:v>46559</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>44315</c:v>
+                  <c:v>46589</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>44322</c:v>
+                  <c:v>46619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -496,307 +521,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.0477874017427844E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.046582413725373E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.0441558423625494E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.043077014993111E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.446059432218517E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.7873356659814608E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3.0154845248417939E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3.0591820051985463E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3.0539373551432325E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3.0498583674011703E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>3.0465952934524143E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>3.0439255825297939E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>3.0417008762630759E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>3.1518275917765459E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>3.2984088834254965E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>3.4256144802396138E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>3.5370478693843799E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>3.6354711486074054E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>3.72303705109851E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>3.8014482039500086E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>3.8720689214020831E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>3.9360052558703451E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>3.9941633464381843E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>4.0472926323573466E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>4.0960183218793356E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>4.1842301371262769E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>4.3074686109715987E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>4.4217082851609746E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>4.5279000110483691E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>4.6268652443682612E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>4.7193173306435687E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>4.8058787229438682E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>4.8870950108395927E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>4.9634464288987434E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>5.0353573576426225E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>5.1032042139621536E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>5.1673220407395748E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>5.2489204425372415E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>5.3670447161006329E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>5.479233883230461E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>5.5859242333788917E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>5.6875103220763057E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>5.784349843911385E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>5.8767678383942368E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>5.9650603328636365E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>6.0494975084206981E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>6.1303264601846097E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>6.2077736112429394E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>6.2820468299426002E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0</c:v>
+                  <c:v>6.3486737846446498E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1561,7 +1586,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1841,54 +1872,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D8877F-7093-4DDC-9262-75C479E7D9B6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>43622</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+        <v>43619</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3">
-        <f>_xll.JPMCDS.BUILD.IR.ZERO.CURVE(C2, F6:F10, F15:F17)</f>
-        <v>-1.2560591625415323E-149</v>
+      <c r="C3" s="3" cm="1">
+        <f t="array" ref="C3">_xll.JPMCDS.BUILD.IR.ZERO.CURVE(C2, F6:F10, F15:F17)</f>
+        <v>-9.2559600142467789E+61</v>
       </c>
       <c r="H3" s="1">
         <f>C2</f>
-        <v>43622</v>
-      </c>
-      <c r="I3" t="e">
+        <v>43619</v>
+      </c>
+      <c r="I3">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H3)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2.0477874017427844E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="H4" s="1">
-        <f>H3+7</f>
-        <v>43629</v>
-      </c>
-      <c r="I4" t="e">
+        <f>H3+$H$2</f>
+        <v>43649</v>
+      </c>
+      <c r="I4">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H4)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2.046582413725373E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -1896,1131 +1944,1131 @@
         <v>5</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" ref="H5:H68" si="0">H4+7</f>
-        <v>43636</v>
-      </c>
-      <c r="I5" t="e">
+        <f t="shared" ref="H5:H68" si="0">H4+$H$2</f>
+        <v>43679</v>
+      </c>
+      <c r="I5">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H5)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2.0441558423625494E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6">
-        <f>_xll.JPMCDS.INSTRUMENT.MONEY.MARKET(B6, C6)</f>
-        <v>-2.3756251363378417E-163</v>
+      <c r="D6" cm="1">
+        <f t="array" ref="D6">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET(B6, C6)</f>
+        <v>-9.255959760630308E+61</v>
       </c>
       <c r="E6">
         <v>0.02</v>
       </c>
-      <c r="F6">
-        <f>_xll.JPMCDS.INSTRUMENT.MONEY.MARKET.SET(D6, E6, $C$2)</f>
-        <v>-2.3756251363378417E-163</v>
+      <c r="F6" cm="1">
+        <f t="array" ref="F6">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET.SET(D6, E6, $C$2)</f>
+        <v>-9.255959760630308E+61</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="0"/>
-        <v>43643</v>
-      </c>
-      <c r="I6" t="e">
+        <v>43709</v>
+      </c>
+      <c r="I6">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H6)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2.043077014993111E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="D7">
-        <f>_xll.JPMCDS.INSTRUMENT.MONEY.MARKET(B7, C7)</f>
-        <v>-2.3734205568896524E-163</v>
+      <c r="D7" cm="1">
+        <f t="array" ref="D7">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET(B7, C7)</f>
+        <v>-9.2559597606483575E+61</v>
       </c>
       <c r="E7">
         <v>0.02</v>
       </c>
-      <c r="F7">
-        <f>_xll.JPMCDS.INSTRUMENT.MONEY.MARKET.SET(D7, E7, $C$2)</f>
-        <v>-2.3734205568896524E-163</v>
+      <c r="F7" cm="1">
+        <f t="array" ref="F7">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET.SET(D7, E7, $C$2)</f>
+        <v>-9.2559597606483575E+61</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="0"/>
-        <v>43650</v>
-      </c>
-      <c r="I7" t="e">
+        <v>43739</v>
+      </c>
+      <c r="I7">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H7)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2.446059432218517E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="D8">
-        <f>_xll.JPMCDS.INSTRUMENT.MONEY.MARKET(B8, C8)</f>
-        <v>-2.3751163872344134E-163</v>
+      <c r="D8" cm="1">
+        <f t="array" ref="D8">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET(B8, C8)</f>
+        <v>-9.2559597606322079E+61</v>
       </c>
       <c r="E8">
         <v>0.02</v>
       </c>
-      <c r="F8">
-        <f>_xll.JPMCDS.INSTRUMENT.MONEY.MARKET.SET(D8, E8, $C$2)</f>
-        <v>-2.3751163872344134E-163</v>
+      <c r="F8" cm="1">
+        <f t="array" ref="F8">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET.SET(D8, E8, $C$2)</f>
+        <v>-9.2559597606322079E+61</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="0"/>
-        <v>43657</v>
-      </c>
-      <c r="I8" t="e">
+        <v>43769</v>
+      </c>
+      <c r="I8">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H8)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2.7873356659814608E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
       </c>
-      <c r="D9">
-        <f>_xll.JPMCDS.INSTRUMENT.MONEY.MARKET(B9, C9)</f>
-        <v>-2.3810517934410767E-163</v>
+      <c r="D9" cm="1">
+        <f t="array" ref="D9">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET(B9, C9)</f>
+        <v>-9.2559597606311392E+61</v>
       </c>
       <c r="E9">
         <v>0.03</v>
       </c>
-      <c r="F9">
-        <f>_xll.JPMCDS.INSTRUMENT.MONEY.MARKET.SET(D9, E9, $C$2)</f>
-        <v>-2.3810517934410767E-163</v>
+      <c r="F9" cm="1">
+        <f t="array" ref="F9">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET.SET(D9, E9, $C$2)</f>
+        <v>-9.2559597606311392E+61</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="0"/>
-        <v>43664</v>
-      </c>
-      <c r="I9" t="e">
+        <v>43799</v>
+      </c>
+      <c r="I9">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H9)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3.0154845248417939E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="D10">
-        <f>_xll.JPMCDS.INSTRUMENT.MONEY.MARKET(B10, C10)</f>
-        <v>-2.3754555533033656E-163</v>
+      <c r="D10" cm="1">
+        <f t="array" ref="D10">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET(B10, C10)</f>
+        <v>-9.2559597606335142E+61</v>
       </c>
       <c r="E10">
         <v>0.03</v>
       </c>
-      <c r="F10">
-        <f>_xll.JPMCDS.INSTRUMENT.MONEY.MARKET.SET(D10, E10, $C$2)</f>
-        <v>-2.3754555533033656E-163</v>
+      <c r="F10" cm="1">
+        <f t="array" ref="F10">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET.SET(D10, E10, $C$2)</f>
+        <v>-9.2559597606335142E+61</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="0"/>
-        <v>43671</v>
-      </c>
-      <c r="I10" t="e">
+        <v>43829</v>
+      </c>
+      <c r="I10">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H10)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3.0591820051985463E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="H11" s="1">
         <f t="shared" si="0"/>
-        <v>43678</v>
-      </c>
-      <c r="I11" t="e">
+        <v>43859</v>
+      </c>
+      <c r="I11">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H11)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3.0539373551432325E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
       <c r="H12" s="1">
         <f t="shared" si="0"/>
-        <v>43685</v>
-      </c>
-      <c r="I12" t="e">
+        <v>43889</v>
+      </c>
+      <c r="I12">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H12)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3.0498583674011703E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
       <c r="H13" s="1">
         <f t="shared" si="0"/>
-        <v>43692</v>
-      </c>
-      <c r="I13" t="e">
+        <v>43919</v>
+      </c>
+      <c r="I13">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H13)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3.0465952934524143E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="0"/>
-        <v>43699</v>
-      </c>
-      <c r="I14" t="e">
+        <v>43949</v>
+      </c>
+      <c r="I14">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H14)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3.0439255825297939E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
-      <c r="D15">
-        <f>_xll.JPMCDS.INSTRUMENT.INTEREST.RATE.SWAP(B15,C15)</f>
-        <v>-5.0463671484227084E-163</v>
+      <c r="D15" cm="1">
+        <f t="array" ref="D15">_xll.JPMCDS.INSTRUMENT.INTEREST.RATE.SWAP(B15,C15)</f>
+        <v>-9.2559597630992775E+61</v>
       </c>
       <c r="E15">
-        <v>0.03</v>
-      </c>
-      <c r="F15">
-        <f>_xll.JPMCDS.INSTRUMENT.INTEREST.RATE.SWAP.SET(D15, E15, $C$2)</f>
-        <v>-5.0463671484227084E-163</v>
+        <v>0.04</v>
+      </c>
+      <c r="F15" cm="1">
+        <f t="array" ref="F15">_xll.JPMCDS.INSTRUMENT.INTEREST.RATE.SWAP.SET(D15, E15, $C$2)</f>
+        <v>-9.2559597630992775E+61</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="0"/>
-        <v>43706</v>
-      </c>
-      <c r="I15" t="e">
+        <v>43979</v>
+      </c>
+      <c r="I15">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H15)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3.0417008762630759E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
-      <c r="D16">
-        <f>_xll.JPMCDS.INSTRUMENT.INTEREST.RATE.SWAP(B16,C16)</f>
-        <v>-5.0524721376638478E-163</v>
+      <c r="D16" cm="1">
+        <f t="array" ref="D16">_xll.JPMCDS.INSTRUMENT.INTEREST.RATE.SWAP(B16,C16)</f>
+        <v>-9.2559597631028399E+61</v>
       </c>
       <c r="E16">
-        <v>0.03</v>
-      </c>
-      <c r="F16">
-        <f>_xll.JPMCDS.INSTRUMENT.INTEREST.RATE.SWAP.SET(D16, E16, $C$2)</f>
-        <v>-5.0524721376638478E-163</v>
+        <v>0.05</v>
+      </c>
+      <c r="F16" cm="1">
+        <f t="array" ref="F16">_xll.JPMCDS.INSTRUMENT.INTEREST.RATE.SWAP.SET(D16, E16, $C$2)</f>
+        <v>-9.2559597631028399E+61</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="0"/>
-        <v>43713</v>
-      </c>
-      <c r="I16" t="e">
+        <v>44009</v>
+      </c>
+      <c r="I16">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H16)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3.1518275917765459E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
-      <c r="D17">
-        <f>_xll.JPMCDS.INSTRUMENT.INTEREST.RATE.SWAP(B17,C17)</f>
-        <v>-5.0448409011124235E-163</v>
+      <c r="D17" cm="1">
+        <f t="array" ref="D17">_xll.JPMCDS.INSTRUMENT.INTEREST.RATE.SWAP(B17,C17)</f>
+        <v>-9.2559597631029769E+61</v>
       </c>
       <c r="E17">
-        <v>0.03</v>
-      </c>
-      <c r="F17">
-        <f>_xll.JPMCDS.INSTRUMENT.INTEREST.RATE.SWAP.SET(D17, E17, $C$2)</f>
-        <v>-5.0448409011124235E-163</v>
+        <v>0.06</v>
+      </c>
+      <c r="F17" cm="1">
+        <f t="array" ref="F17">_xll.JPMCDS.INSTRUMENT.INTEREST.RATE.SWAP.SET(D17, E17, $C$2)</f>
+        <v>-9.2559597631029769E+61</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="0"/>
-        <v>43720</v>
-      </c>
-      <c r="I17" t="e">
+        <v>44039</v>
+      </c>
+      <c r="I17">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H17)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3.2984088834254965E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="H18" s="1">
         <f t="shared" si="0"/>
-        <v>43727</v>
-      </c>
-      <c r="I18" t="e">
+        <v>44069</v>
+      </c>
+      <c r="I18">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H18)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3.4256144802396138E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="H19" s="1">
         <f t="shared" si="0"/>
-        <v>43734</v>
-      </c>
-      <c r="I19" t="e">
+        <v>44099</v>
+      </c>
+      <c r="I19">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H19)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3.5370478693843799E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="H20" s="1">
         <f t="shared" si="0"/>
-        <v>43741</v>
-      </c>
-      <c r="I20" t="e">
+        <v>44129</v>
+      </c>
+      <c r="I20">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H20)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3.6354711486074054E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
       <c r="H21" s="1">
         <f t="shared" si="0"/>
-        <v>43748</v>
-      </c>
-      <c r="I21" t="e">
+        <v>44159</v>
+      </c>
+      <c r="I21">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H21)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3.72303705109851E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
       <c r="H22" s="1">
         <f t="shared" si="0"/>
-        <v>43755</v>
-      </c>
-      <c r="I22" t="e">
+        <v>44189</v>
+      </c>
+      <c r="I22">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H22)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3.8014482039500086E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
       <c r="H23" s="1">
         <f t="shared" si="0"/>
-        <v>43762</v>
-      </c>
-      <c r="I23" t="e">
+        <v>44219</v>
+      </c>
+      <c r="I23">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H23)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3.8720689214020831E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
       <c r="H24" s="1">
         <f t="shared" si="0"/>
-        <v>43769</v>
-      </c>
-      <c r="I24" t="e">
+        <v>44249</v>
+      </c>
+      <c r="I24">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H24)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3.9360052558703451E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
       <c r="H25" s="1">
         <f t="shared" si="0"/>
-        <v>43776</v>
-      </c>
-      <c r="I25" t="e">
+        <v>44279</v>
+      </c>
+      <c r="I25">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H25)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3.9941633464381843E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
       <c r="H26" s="1">
         <f t="shared" si="0"/>
-        <v>43783</v>
-      </c>
-      <c r="I26" t="e">
+        <v>44309</v>
+      </c>
+      <c r="I26">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H26)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4.0472926323573466E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
       <c r="H27" s="1">
         <f t="shared" si="0"/>
-        <v>43790</v>
-      </c>
-      <c r="I27" t="e">
+        <v>44339</v>
+      </c>
+      <c r="I27">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H27)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4.0960183218793356E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
       <c r="H28" s="1">
         <f t="shared" si="0"/>
-        <v>43797</v>
-      </c>
-      <c r="I28" t="e">
+        <v>44369</v>
+      </c>
+      <c r="I28">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H28)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4.1842301371262769E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
       <c r="H29" s="1">
         <f t="shared" si="0"/>
-        <v>43804</v>
-      </c>
-      <c r="I29" t="e">
+        <v>44399</v>
+      </c>
+      <c r="I29">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H29)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4.3074686109715987E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
       <c r="H30" s="1">
         <f t="shared" si="0"/>
-        <v>43811</v>
-      </c>
-      <c r="I30" t="e">
+        <v>44429</v>
+      </c>
+      <c r="I30">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H30)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4.4217082851609746E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
       <c r="H31" s="1">
         <f t="shared" si="0"/>
-        <v>43818</v>
-      </c>
-      <c r="I31" t="e">
+        <v>44459</v>
+      </c>
+      <c r="I31">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H31)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4.5279000110483691E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
       <c r="H32" s="1">
         <f t="shared" si="0"/>
-        <v>43825</v>
-      </c>
-      <c r="I32" t="e">
+        <v>44489</v>
+      </c>
+      <c r="I32">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H32)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
+        <v>4.6268652443682612E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H33" s="1">
         <f t="shared" si="0"/>
-        <v>43832</v>
-      </c>
-      <c r="I33" t="e">
+        <v>44519</v>
+      </c>
+      <c r="I33">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H33)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
+        <v>4.7193173306435687E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H34" s="1">
         <f t="shared" si="0"/>
-        <v>43839</v>
-      </c>
-      <c r="I34" t="e">
+        <v>44549</v>
+      </c>
+      <c r="I34">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H34)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
+        <v>4.8058787229438682E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H35" s="1">
         <f t="shared" si="0"/>
-        <v>43846</v>
-      </c>
-      <c r="I35" t="e">
+        <v>44579</v>
+      </c>
+      <c r="I35">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H35)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.25">
+        <v>4.8870950108395927E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H36" s="1">
         <f t="shared" si="0"/>
-        <v>43853</v>
-      </c>
-      <c r="I36" t="e">
+        <v>44609</v>
+      </c>
+      <c r="I36">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H36)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.25">
+        <v>4.9634464288987434E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H37" s="1">
         <f t="shared" si="0"/>
-        <v>43860</v>
-      </c>
-      <c r="I37" t="e">
+        <v>44639</v>
+      </c>
+      <c r="I37">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H37)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.25">
+        <v>5.0353573576426225E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H38" s="1">
         <f t="shared" si="0"/>
-        <v>43867</v>
-      </c>
-      <c r="I38" t="e">
+        <v>44669</v>
+      </c>
+      <c r="I38">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H38)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.25">
+        <v>5.1032042139621536E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H39" s="1">
         <f t="shared" si="0"/>
-        <v>43874</v>
-      </c>
-      <c r="I39" t="e">
+        <v>44699</v>
+      </c>
+      <c r="I39">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H39)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="40" spans="8:9" x14ac:dyDescent="0.25">
+        <v>5.1673220407395748E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H40" s="1">
         <f t="shared" si="0"/>
-        <v>43881</v>
-      </c>
-      <c r="I40" t="e">
+        <v>44729</v>
+      </c>
+      <c r="I40">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H40)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="41" spans="8:9" x14ac:dyDescent="0.25">
+        <v>5.2489204425372415E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H41" s="1">
         <f t="shared" si="0"/>
-        <v>43888</v>
-      </c>
-      <c r="I41" t="e">
+        <v>44759</v>
+      </c>
+      <c r="I41">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H41)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="42" spans="8:9" x14ac:dyDescent="0.25">
+        <v>5.3670447161006329E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H42" s="1">
         <f t="shared" si="0"/>
-        <v>43895</v>
-      </c>
-      <c r="I42" t="e">
+        <v>44789</v>
+      </c>
+      <c r="I42">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H42)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="43" spans="8:9" x14ac:dyDescent="0.25">
+        <v>5.479233883230461E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H43" s="1">
         <f t="shared" si="0"/>
-        <v>43902</v>
-      </c>
-      <c r="I43" t="e">
+        <v>44819</v>
+      </c>
+      <c r="I43">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H43)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="44" spans="8:9" x14ac:dyDescent="0.25">
+        <v>5.5859242333788917E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H44" s="1">
         <f t="shared" si="0"/>
-        <v>43909</v>
-      </c>
-      <c r="I44" t="e">
+        <v>44849</v>
+      </c>
+      <c r="I44">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H44)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="45" spans="8:9" x14ac:dyDescent="0.25">
+        <v>5.6875103220763057E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H45" s="1">
         <f t="shared" si="0"/>
-        <v>43916</v>
-      </c>
-      <c r="I45" t="e">
+        <v>44879</v>
+      </c>
+      <c r="I45">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H45)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="46" spans="8:9" x14ac:dyDescent="0.25">
+        <v>5.784349843911385E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H46" s="1">
         <f t="shared" si="0"/>
-        <v>43923</v>
-      </c>
-      <c r="I46" t="e">
+        <v>44909</v>
+      </c>
+      <c r="I46">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H46)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="47" spans="8:9" x14ac:dyDescent="0.25">
+        <v>5.8767678383942368E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H47" s="1">
         <f t="shared" si="0"/>
-        <v>43930</v>
-      </c>
-      <c r="I47" t="e">
+        <v>44939</v>
+      </c>
+      <c r="I47">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H47)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="48" spans="8:9" x14ac:dyDescent="0.25">
+        <v>5.9650603328636365E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H48" s="1">
         <f t="shared" si="0"/>
-        <v>43937</v>
-      </c>
-      <c r="I48" t="e">
+        <v>44969</v>
+      </c>
+      <c r="I48">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H48)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="49" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.0494975084206981E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H49" s="1">
         <f t="shared" si="0"/>
-        <v>43944</v>
-      </c>
-      <c r="I49" t="e">
+        <v>44999</v>
+      </c>
+      <c r="I49">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H49)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="50" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.1303264601846097E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H50" s="1">
         <f t="shared" si="0"/>
-        <v>43951</v>
-      </c>
-      <c r="I50" t="e">
+        <v>45029</v>
+      </c>
+      <c r="I50">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H50)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="51" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.2077736112429394E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H51" s="1">
         <f t="shared" si="0"/>
-        <v>43958</v>
-      </c>
-      <c r="I51" t="e">
+        <v>45059</v>
+      </c>
+      <c r="I51">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H51)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="52" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.2820468299426002E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H52" s="1">
         <f t="shared" si="0"/>
-        <v>43965</v>
-      </c>
-      <c r="I52" t="e">
+        <v>45089</v>
+      </c>
+      <c r="I52">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H52)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="53" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H53" s="1">
         <f t="shared" si="0"/>
-        <v>43972</v>
-      </c>
-      <c r="I53" t="e">
+        <v>45119</v>
+      </c>
+      <c r="I53">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H53)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="54" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H54" s="1">
         <f t="shared" si="0"/>
-        <v>43979</v>
-      </c>
-      <c r="I54" t="e">
+        <v>45149</v>
+      </c>
+      <c r="I54">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H54)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="55" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H55" s="1">
         <f t="shared" si="0"/>
-        <v>43986</v>
-      </c>
-      <c r="I55" t="e">
+        <v>45179</v>
+      </c>
+      <c r="I55">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H55)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="56" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H56" s="1">
         <f t="shared" si="0"/>
-        <v>43993</v>
-      </c>
-      <c r="I56" t="e">
+        <v>45209</v>
+      </c>
+      <c r="I56">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H56)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="57" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H57" s="1">
         <f t="shared" si="0"/>
-        <v>44000</v>
-      </c>
-      <c r="I57" t="e">
+        <v>45239</v>
+      </c>
+      <c r="I57">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H57)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="58" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H58" s="1">
         <f t="shared" si="0"/>
-        <v>44007</v>
-      </c>
-      <c r="I58" t="e">
+        <v>45269</v>
+      </c>
+      <c r="I58">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H58)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="59" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H59" s="1">
         <f t="shared" si="0"/>
-        <v>44014</v>
-      </c>
-      <c r="I59" t="e">
+        <v>45299</v>
+      </c>
+      <c r="I59">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H59)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="60" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H60" s="1">
         <f t="shared" si="0"/>
-        <v>44021</v>
-      </c>
-      <c r="I60" t="e">
+        <v>45329</v>
+      </c>
+      <c r="I60">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H60)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="61" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H61" s="1">
         <f t="shared" si="0"/>
-        <v>44028</v>
-      </c>
-      <c r="I61" t="e">
+        <v>45359</v>
+      </c>
+      <c r="I61">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H61)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="62" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H62" s="1">
         <f t="shared" si="0"/>
-        <v>44035</v>
-      </c>
-      <c r="I62" t="e">
+        <v>45389</v>
+      </c>
+      <c r="I62">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H62)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="63" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H63" s="1">
         <f t="shared" si="0"/>
-        <v>44042</v>
-      </c>
-      <c r="I63" t="e">
+        <v>45419</v>
+      </c>
+      <c r="I63">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H63)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="64" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H64" s="1">
         <f t="shared" si="0"/>
-        <v>44049</v>
-      </c>
-      <c r="I64" t="e">
+        <v>45449</v>
+      </c>
+      <c r="I64">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H64)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="65" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H65" s="1">
         <f t="shared" si="0"/>
-        <v>44056</v>
-      </c>
-      <c r="I65" t="e">
+        <v>45479</v>
+      </c>
+      <c r="I65">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H65)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="66" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H66" s="1">
         <f t="shared" si="0"/>
-        <v>44063</v>
-      </c>
-      <c r="I66" t="e">
+        <v>45509</v>
+      </c>
+      <c r="I66">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H66)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="67" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H67" s="1">
         <f t="shared" si="0"/>
-        <v>44070</v>
-      </c>
-      <c r="I67" t="e">
+        <v>45539</v>
+      </c>
+      <c r="I67">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H67)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="68" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H68" s="1">
         <f t="shared" si="0"/>
-        <v>44077</v>
-      </c>
-      <c r="I68" t="e">
+        <v>45569</v>
+      </c>
+      <c r="I68">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H68)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="69" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H69" s="1">
-        <f t="shared" ref="H69:H103" si="1">H68+7</f>
-        <v>44084</v>
-      </c>
-      <c r="I69" t="e">
+        <f t="shared" ref="H69:H103" si="1">H68+$H$2</f>
+        <v>45599</v>
+      </c>
+      <c r="I69">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H69)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="70" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H70" s="1">
         <f t="shared" si="1"/>
-        <v>44091</v>
-      </c>
-      <c r="I70" t="e">
+        <v>45629</v>
+      </c>
+      <c r="I70">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H70)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="71" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H71" s="1">
         <f t="shared" si="1"/>
-        <v>44098</v>
-      </c>
-      <c r="I71" t="e">
+        <v>45659</v>
+      </c>
+      <c r="I71">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H71)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="72" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H72" s="1">
         <f t="shared" si="1"/>
-        <v>44105</v>
-      </c>
-      <c r="I72" t="e">
+        <v>45689</v>
+      </c>
+      <c r="I72">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H72)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="73" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H73" s="1">
         <f t="shared" si="1"/>
-        <v>44112</v>
-      </c>
-      <c r="I73" t="e">
+        <v>45719</v>
+      </c>
+      <c r="I73">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H73)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="74" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H74" s="1">
         <f t="shared" si="1"/>
-        <v>44119</v>
-      </c>
-      <c r="I74" t="e">
+        <v>45749</v>
+      </c>
+      <c r="I74">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H74)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="75" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H75" s="1">
         <f t="shared" si="1"/>
-        <v>44126</v>
-      </c>
-      <c r="I75" t="e">
+        <v>45779</v>
+      </c>
+      <c r="I75">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H75)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="76" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H76" s="1">
         <f t="shared" si="1"/>
-        <v>44133</v>
-      </c>
-      <c r="I76" t="e">
+        <v>45809</v>
+      </c>
+      <c r="I76">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H76)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="77" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H77" s="1">
         <f t="shared" si="1"/>
-        <v>44140</v>
-      </c>
-      <c r="I77" t="e">
+        <v>45839</v>
+      </c>
+      <c r="I77">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H77)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="78" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H78" s="1">
         <f t="shared" si="1"/>
-        <v>44147</v>
-      </c>
-      <c r="I78" t="e">
+        <v>45869</v>
+      </c>
+      <c r="I78">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H78)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="79" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H79" s="1">
         <f t="shared" si="1"/>
-        <v>44154</v>
-      </c>
-      <c r="I79" t="e">
+        <v>45899</v>
+      </c>
+      <c r="I79">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H79)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="80" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H80" s="1">
         <f t="shared" si="1"/>
-        <v>44161</v>
-      </c>
-      <c r="I80" t="e">
+        <v>45929</v>
+      </c>
+      <c r="I80">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H80)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="81" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H81" s="1">
         <f t="shared" si="1"/>
-        <v>44168</v>
-      </c>
-      <c r="I81" t="e">
+        <v>45959</v>
+      </c>
+      <c r="I81">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H81)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="82" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H82" s="1">
         <f t="shared" si="1"/>
-        <v>44175</v>
-      </c>
-      <c r="I82" t="e">
+        <v>45989</v>
+      </c>
+      <c r="I82">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H82)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="83" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H83" s="1">
         <f t="shared" si="1"/>
-        <v>44182</v>
-      </c>
-      <c r="I83" t="e">
+        <v>46019</v>
+      </c>
+      <c r="I83">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H83)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="84" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H84" s="1">
         <f t="shared" si="1"/>
-        <v>44189</v>
-      </c>
-      <c r="I84" t="e">
+        <v>46049</v>
+      </c>
+      <c r="I84">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H84)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="85" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H85" s="1">
         <f t="shared" si="1"/>
-        <v>44196</v>
-      </c>
-      <c r="I85" t="e">
+        <v>46079</v>
+      </c>
+      <c r="I85">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H85)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="86" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H86" s="1">
         <f t="shared" si="1"/>
-        <v>44203</v>
-      </c>
-      <c r="I86" t="e">
+        <v>46109</v>
+      </c>
+      <c r="I86">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H86)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="87" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H87" s="1">
         <f t="shared" si="1"/>
-        <v>44210</v>
-      </c>
-      <c r="I87" t="e">
+        <v>46139</v>
+      </c>
+      <c r="I87">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H87)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="88" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H88" s="1">
         <f t="shared" si="1"/>
-        <v>44217</v>
-      </c>
-      <c r="I88" t="e">
+        <v>46169</v>
+      </c>
+      <c r="I88">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H88)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="89" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H89" s="1">
         <f t="shared" si="1"/>
-        <v>44224</v>
-      </c>
-      <c r="I89" t="e">
+        <v>46199</v>
+      </c>
+      <c r="I89">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H89)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="90" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H90" s="1">
         <f t="shared" si="1"/>
-        <v>44231</v>
-      </c>
-      <c r="I90" t="e">
+        <v>46229</v>
+      </c>
+      <c r="I90">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H90)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="91" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H91" s="1">
         <f t="shared" si="1"/>
-        <v>44238</v>
-      </c>
-      <c r="I91" t="e">
+        <v>46259</v>
+      </c>
+      <c r="I91">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H91)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="92" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H92" s="1">
         <f t="shared" si="1"/>
-        <v>44245</v>
-      </c>
-      <c r="I92" t="e">
+        <v>46289</v>
+      </c>
+      <c r="I92">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H92)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="93" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H93" s="1">
         <f t="shared" si="1"/>
-        <v>44252</v>
-      </c>
-      <c r="I93" t="e">
+        <v>46319</v>
+      </c>
+      <c r="I93">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H93)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="94" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H94" s="1">
         <f t="shared" si="1"/>
-        <v>44259</v>
-      </c>
-      <c r="I94" t="e">
+        <v>46349</v>
+      </c>
+      <c r="I94">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H94)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="95" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H95" s="1">
         <f t="shared" si="1"/>
-        <v>44266</v>
-      </c>
-      <c r="I95" t="e">
+        <v>46379</v>
+      </c>
+      <c r="I95">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H95)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="96" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H96" s="1">
         <f t="shared" si="1"/>
-        <v>44273</v>
-      </c>
-      <c r="I96" t="e">
+        <v>46409</v>
+      </c>
+      <c r="I96">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H96)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="97" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H97" s="1">
         <f t="shared" si="1"/>
-        <v>44280</v>
-      </c>
-      <c r="I97" t="e">
+        <v>46439</v>
+      </c>
+      <c r="I97">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H97)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="98" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H98" s="1">
         <f t="shared" si="1"/>
-        <v>44287</v>
-      </c>
-      <c r="I98" t="e">
+        <v>46469</v>
+      </c>
+      <c r="I98">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H98)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="99" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H99" s="1">
         <f t="shared" si="1"/>
-        <v>44294</v>
-      </c>
-      <c r="I99" t="e">
+        <v>46499</v>
+      </c>
+      <c r="I99">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H99)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="100" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H100" s="1">
         <f t="shared" si="1"/>
-        <v>44301</v>
-      </c>
-      <c r="I100" t="e">
+        <v>46529</v>
+      </c>
+      <c r="I100">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H100)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="101" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H101" s="1">
         <f t="shared" si="1"/>
-        <v>44308</v>
-      </c>
-      <c r="I101" t="e">
+        <v>46559</v>
+      </c>
+      <c r="I101">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H101)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="102" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H102" s="1">
         <f t="shared" si="1"/>
-        <v>44315</v>
-      </c>
-      <c r="I102" t="e">
+        <v>46589</v>
+      </c>
+      <c r="I102">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H102)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="103" spans="8:9" x14ac:dyDescent="0.25">
+        <v>6.3486737846446498E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H103" s="1">
         <f t="shared" si="1"/>
-        <v>44322</v>
-      </c>
-      <c r="I103" t="e">
+        <v>46619</v>
+      </c>
+      <c r="I103">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H103)</f>
-        <v>#NUM!</v>
+        <v>6.3486737846446498E-2</v>
       </c>
     </row>
   </sheetData>

--- a/xll_isda_cds.xlsx
+++ b/xll_isda_cds.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\Source\Repos\keithalewis\xll_isda_cds\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalx\source\repos\isda_cds_model\xll_isda_cds\xll_isda_cds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600CF9DB-1D00-494A-9076-88CA257C077E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,14 +33,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -85,7 +84,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -152,6 +151,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -521,307 +521,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>2.0477874017427844E-2</c:v>
+                  <c:v>2.0479022694424476E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.046582413725373E-2</c:v>
+                  <c:v>2.0465632941256029E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0441558423625494E-2</c:v>
+                  <c:v>2.0442033410969396E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.043077014993111E-2</c:v>
+                  <c:v>2.0431466790747033E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.446059432218517E-2</c:v>
+                  <c:v>2.4766919390539988E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7873356659814608E-2</c:v>
+                  <c:v>2.8075030007503887E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0154845248417939E-2</c:v>
+                  <c:v>3.0286367797119906E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0591820051985463E-2</c:v>
+                  <c:v>3.0589767593514727E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0539373551432325E-2</c:v>
+                  <c:v>3.0537736010148198E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0498583674011703E-2</c:v>
+                  <c:v>3.0497268817017975E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0465952934524143E-2</c:v>
+                  <c:v>3.0464896206645165E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.0439255825297939E-2</c:v>
+                  <c:v>3.0438410281857342E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.0417008762630759E-2</c:v>
+                  <c:v>3.041633919789688E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.1518275917765459E-2</c:v>
+                  <c:v>3.1464615699908105E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.2984088834254965E-2</c:v>
+                  <c:v>3.2938531048446018E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.4256144802396138E-2</c:v>
+                  <c:v>3.4217627889381319E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.5370478693843799E-2</c:v>
+                  <c:v>3.5338136864962344E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.6354711486074054E-2</c:v>
+                  <c:v>3.63278293785807E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.72303705109851E-2</c:v>
+                  <c:v>3.720835025186231E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.8014482039500086E-2</c:v>
+                  <c:v>3.7996818854921788E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.8720689214020831E-2</c:v>
+                  <c:v>3.8706953055249516E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.9360052558703451E-2</c:v>
+                  <c:v>3.9349874047397204E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.9941633464381843E-2</c:v>
+                  <c:v>3.993469299362129E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.0472926323573466E-2</c:v>
+                  <c:v>4.0468945500936382E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.0960183218793356E-2</c:v>
+                  <c:v>4.095891807246943E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.1842301371262769E-2</c:v>
+                  <c:v>4.1843525864032616E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.3074686109715987E-2</c:v>
+                  <c:v>4.3078202773928487E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.4217082851609746E-2</c:v>
+                  <c:v>4.4222726734658879E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.5279000110483691E-2</c:v>
+                  <c:v>4.5286623440293106E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.6268652443682612E-2</c:v>
+                  <c:v>4.6278122323753612E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.7193173306435687E-2</c:v>
+                  <c:v>4.7204369784751066E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.8058787229438682E-2</c:v>
+                  <c:v>4.807160167077118E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.8870950108395927E-2</c:v>
+                  <c:v>4.8885283814579017E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.9634464288987434E-2</c:v>
+                  <c:v>4.9650227323172036E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.0353573576426225E-2</c:v>
+                  <c:v>5.0370683756185919E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.1032042139621536E-2</c:v>
+                  <c:v>5.1050424170624664E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.1673220407395748E-2</c:v>
+                  <c:v>5.1692805134746278E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.2489204425372415E-2</c:v>
+                  <c:v>5.0773468600526339E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.3670447161006329E-2</c:v>
+                  <c:v>4.7341646129006154E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.479233883230461E-2</c:v>
+                  <c:v>4.4096176012196953E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.5859242333788917E-2</c:v>
+                  <c:v>4.1022295144780951E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.6875103220763057E-2</c:v>
+                  <c:v>3.8106758369680582E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.784349843911385E-2</c:v>
+                  <c:v>3.5337648423971801E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.8767678383942368E-2</c:v>
+                  <c:v>3.2704213721803654E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.9650603328636365E-2</c:v>
+                  <c:v>3.0196729333954675E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.0494975084206981E-2</c:v>
+                  <c:v>2.7806377386607739E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.1303264601846097E-2</c:v>
+                  <c:v>2.5525143788556193E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6.2077736112429394E-2</c:v>
+                  <c:v>2.3345728745441052E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.2820468299426002E-2</c:v>
+                  <c:v>2.126146896161818E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>6.3486737846446498E-2</c:v>
+                  <c:v>1.9658459765005361E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -829,7 +829,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4D10-4BC7-BEAB-A8E584B4D5CE}"/>
+              <c16:uniqueId val="{00000000-3AC1-452A-8A92-9088B599AB2C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1872,33 +1872,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D8877F-7093-4DDC-9262-75C479E7D9B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1909,13 +1910,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" cm="1">
-        <f t="array" ref="C3">_xll.JPMCDS.BUILD.IR.ZERO.CURVE(C2, F6:F10, F15:F17)</f>
-        <v>-9.2559600142467789E+61</v>
+      <c r="C3" s="3">
+        <f>_xll.JPMCDS.BUILD.IR.ZERO.CURVE(C2, F6:F10, F15:F17)</f>
+        <v>7202171</v>
       </c>
       <c r="H3" s="1">
         <f>C2</f>
@@ -1923,20 +1924,20 @@
       </c>
       <c r="I3">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H3)</f>
-        <v>2.0477874017427844E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+        <v>2.0479022694424476E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H4" s="1">
         <f>H3+$H$2</f>
         <v>43649</v>
       </c>
       <c r="I4">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H4)</f>
-        <v>2.046582413725373E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+        <v>2.0465632941256029E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -1949,10 +1950,10 @@
       </c>
       <c r="I5">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H5)</f>
-        <v>2.0441558423625494E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+        <v>2.0442033410969396E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1</v>
       </c>
@@ -1961,14 +1962,14 @@
       </c>
       <c r="D6" cm="1">
         <f t="array" ref="D6">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET(B6, C6)</f>
-        <v>-9.255959760630308E+61</v>
+        <v>-769478</v>
       </c>
       <c r="E6">
         <v>0.02</v>
       </c>
       <c r="F6" cm="1">
         <f t="array" ref="F6">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET.SET(D6, E6, $C$2)</f>
-        <v>-9.255959760630308E+61</v>
+        <v>-769478</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="0"/>
@@ -1976,10 +1977,10 @@
       </c>
       <c r="I6">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H6)</f>
-        <v>2.043077014993111E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+        <v>2.0431466790747033E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1</v>
       </c>
@@ -1988,14 +1989,14 @@
       </c>
       <c r="D7" cm="1">
         <f t="array" ref="D7">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET(B7, C7)</f>
-        <v>-9.2559597606483575E+61</v>
+        <v>-769437</v>
       </c>
       <c r="E7">
         <v>0.02</v>
       </c>
       <c r="F7" cm="1">
         <f t="array" ref="F7">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET.SET(D7, E7, $C$2)</f>
-        <v>-9.2559597606483575E+61</v>
+        <v>-769437</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="0"/>
@@ -2003,10 +2004,10 @@
       </c>
       <c r="I7">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H7)</f>
-        <v>2.446059432218517E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+        <v>2.4766919390539988E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>3</v>
       </c>
@@ -2015,14 +2016,14 @@
       </c>
       <c r="D8" cm="1">
         <f t="array" ref="D8">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET(B8, C8)</f>
-        <v>-9.2559597606322079E+61</v>
+        <v>-39378</v>
       </c>
       <c r="E8">
         <v>0.02</v>
       </c>
       <c r="F8" cm="1">
         <f t="array" ref="F8">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET.SET(D8, E8, $C$2)</f>
-        <v>-9.2559597606322079E+61</v>
+        <v>-39378</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="0"/>
@@ -2030,10 +2031,10 @@
       </c>
       <c r="I8">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H8)</f>
-        <v>2.7873356659814608E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+        <v>2.8075030007503887E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>6</v>
       </c>
@@ -2042,14 +2043,14 @@
       </c>
       <c r="D9" cm="1">
         <f t="array" ref="D9">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET(B9, C9)</f>
-        <v>-9.2559597606311392E+61</v>
+        <v>-769485</v>
       </c>
       <c r="E9">
         <v>0.03</v>
       </c>
       <c r="F9" cm="1">
         <f t="array" ref="F9">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET.SET(D9, E9, $C$2)</f>
-        <v>-9.2559597606311392E+61</v>
+        <v>-769485</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="0"/>
@@ -2057,10 +2058,10 @@
       </c>
       <c r="I9">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H9)</f>
-        <v>3.0154845248417939E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+        <v>3.0286367797119906E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1</v>
       </c>
@@ -2069,14 +2070,14 @@
       </c>
       <c r="D10" cm="1">
         <f t="array" ref="D10">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET(B10, C10)</f>
-        <v>-9.2559597606335142E+61</v>
+        <v>-769482</v>
       </c>
       <c r="E10">
         <v>0.03</v>
       </c>
       <c r="F10" cm="1">
         <f t="array" ref="F10">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET.SET(D10, E10, $C$2)</f>
-        <v>-9.2559597606335142E+61</v>
+        <v>-769482</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="0"/>
@@ -2084,40 +2085,40 @@
       </c>
       <c r="I10">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H10)</f>
-        <v>3.0591820051985463E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+        <v>3.0589767593514727E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H11" s="1">
         <f t="shared" si="0"/>
         <v>43859</v>
       </c>
       <c r="I11">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H11)</f>
-        <v>3.0539373551432325E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+        <v>3.0537736010148198E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H12" s="1">
         <f t="shared" si="0"/>
         <v>43889</v>
       </c>
       <c r="I12">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H12)</f>
-        <v>3.0498583674011703E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+        <v>3.0497268817017975E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H13" s="1">
         <f t="shared" si="0"/>
         <v>43919</v>
       </c>
       <c r="I13">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H13)</f>
-        <v>3.0465952934524143E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+        <v>3.0464896206645165E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -2127,10 +2128,10 @@
       </c>
       <c r="I14">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H14)</f>
-        <v>3.0439255825297939E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+        <v>3.0438410281857342E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>2</v>
       </c>
@@ -2139,14 +2140,14 @@
       </c>
       <c r="D15" cm="1">
         <f t="array" ref="D15">_xll.JPMCDS.INSTRUMENT.INTEREST.RATE.SWAP(B15,C15)</f>
-        <v>-9.2559597630992775E+61</v>
+        <v>520517</v>
       </c>
       <c r="E15">
         <v>0.04</v>
       </c>
       <c r="F15" cm="1">
         <f t="array" ref="F15">_xll.JPMCDS.INSTRUMENT.INTEREST.RATE.SWAP.SET(D15, E15, $C$2)</f>
-        <v>-9.2559597630992775E+61</v>
+        <v>520517</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="0"/>
@@ -2154,10 +2155,10 @@
       </c>
       <c r="I15">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H15)</f>
-        <v>3.0417008762630759E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+        <v>3.041633919789688E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>3</v>
       </c>
@@ -2166,14 +2167,14 @@
       </c>
       <c r="D16" cm="1">
         <f t="array" ref="D16">_xll.JPMCDS.INSTRUMENT.INTEREST.RATE.SWAP(B16,C16)</f>
-        <v>-9.2559597631028399E+61</v>
+        <v>520453</v>
       </c>
       <c r="E16">
         <v>0.05</v>
       </c>
       <c r="F16" cm="1">
         <f t="array" ref="F16">_xll.JPMCDS.INSTRUMENT.INTEREST.RATE.SWAP.SET(D16, E16, $C$2)</f>
-        <v>-9.2559597631028399E+61</v>
+        <v>520453</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="0"/>
@@ -2181,10 +2182,10 @@
       </c>
       <c r="I16">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H16)</f>
-        <v>3.1518275917765459E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+        <v>3.1464615699908105E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>4</v>
       </c>
@@ -2193,14 +2194,14 @@
       </c>
       <c r="D17" cm="1">
         <f t="array" ref="D17">_xll.JPMCDS.INSTRUMENT.INTEREST.RATE.SWAP(B17,C17)</f>
-        <v>-9.2559597631029769E+61</v>
+        <v>520477</v>
       </c>
       <c r="E17">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="F17" cm="1">
         <f t="array" ref="F17">_xll.JPMCDS.INSTRUMENT.INTEREST.RATE.SWAP.SET(D17, E17, $C$2)</f>
-        <v>-9.2559597631029769E+61</v>
+        <v>520477</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="0"/>
@@ -2208,867 +2209,867 @@
       </c>
       <c r="I17">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H17)</f>
-        <v>3.2984088834254965E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+        <v>3.2938531048446018E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H18" s="1">
         <f t="shared" si="0"/>
         <v>44069</v>
       </c>
       <c r="I18">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H18)</f>
-        <v>3.4256144802396138E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+        <v>3.4217627889381319E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H19" s="1">
         <f t="shared" si="0"/>
         <v>44099</v>
       </c>
       <c r="I19">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H19)</f>
-        <v>3.5370478693843799E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+        <v>3.5338136864962344E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H20" s="1">
         <f t="shared" si="0"/>
         <v>44129</v>
       </c>
       <c r="I20">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H20)</f>
-        <v>3.6354711486074054E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
+        <v>3.63278293785807E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H21" s="1">
         <f t="shared" si="0"/>
         <v>44159</v>
       </c>
       <c r="I21">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H21)</f>
-        <v>3.72303705109851E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
+        <v>3.720835025186231E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H22" s="1">
         <f t="shared" si="0"/>
         <v>44189</v>
       </c>
       <c r="I22">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H22)</f>
-        <v>3.8014482039500086E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+        <v>3.7996818854921788E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H23" s="1">
         <f t="shared" si="0"/>
         <v>44219</v>
       </c>
       <c r="I23">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H23)</f>
-        <v>3.8720689214020831E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
+        <v>3.8706953055249516E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H24" s="1">
         <f t="shared" si="0"/>
         <v>44249</v>
       </c>
       <c r="I24">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H24)</f>
-        <v>3.9360052558703451E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
+        <v>3.9349874047397204E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H25" s="1">
         <f t="shared" si="0"/>
         <v>44279</v>
       </c>
       <c r="I25">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H25)</f>
-        <v>3.9941633464381843E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
+        <v>3.993469299362129E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H26" s="1">
         <f t="shared" si="0"/>
         <v>44309</v>
       </c>
       <c r="I26">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H26)</f>
-        <v>4.0472926323573466E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
+        <v>4.0468945500936382E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H27" s="1">
         <f t="shared" si="0"/>
         <v>44339</v>
       </c>
       <c r="I27">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H27)</f>
-        <v>4.0960183218793356E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
+        <v>4.095891807246943E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H28" s="1">
         <f t="shared" si="0"/>
         <v>44369</v>
       </c>
       <c r="I28">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H28)</f>
-        <v>4.1842301371262769E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
+        <v>4.1843525864032616E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H29" s="1">
         <f t="shared" si="0"/>
         <v>44399</v>
       </c>
       <c r="I29">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H29)</f>
-        <v>4.3074686109715987E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
+        <v>4.3078202773928487E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H30" s="1">
         <f t="shared" si="0"/>
         <v>44429</v>
       </c>
       <c r="I30">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H30)</f>
-        <v>4.4217082851609746E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
+        <v>4.4222726734658879E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H31" s="1">
         <f t="shared" si="0"/>
         <v>44459</v>
       </c>
       <c r="I31">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H31)</f>
-        <v>4.5279000110483691E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
+        <v>4.5286623440293106E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H32" s="1">
         <f t="shared" si="0"/>
         <v>44489</v>
       </c>
       <c r="I32">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H32)</f>
-        <v>4.6268652443682612E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.45">
+        <v>4.6278122323753612E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H33" s="1">
         <f t="shared" si="0"/>
         <v>44519</v>
       </c>
       <c r="I33">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H33)</f>
-        <v>4.7193173306435687E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.45">
+        <v>4.7204369784751066E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H34" s="1">
         <f t="shared" si="0"/>
         <v>44549</v>
       </c>
       <c r="I34">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H34)</f>
-        <v>4.8058787229438682E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.45">
+        <v>4.807160167077118E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H35" s="1">
         <f t="shared" si="0"/>
         <v>44579</v>
       </c>
       <c r="I35">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H35)</f>
-        <v>4.8870950108395927E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.45">
+        <v>4.8885283814579017E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H36" s="1">
         <f t="shared" si="0"/>
         <v>44609</v>
       </c>
       <c r="I36">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H36)</f>
-        <v>4.9634464288987434E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.45">
+        <v>4.9650227323172036E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H37" s="1">
         <f t="shared" si="0"/>
         <v>44639</v>
       </c>
       <c r="I37">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H37)</f>
-        <v>5.0353573576426225E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.45">
+        <v>5.0370683756185919E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H38" s="1">
         <f t="shared" si="0"/>
         <v>44669</v>
       </c>
       <c r="I38">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H38)</f>
-        <v>5.1032042139621536E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.45">
+        <v>5.1050424170624664E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H39" s="1">
         <f t="shared" si="0"/>
         <v>44699</v>
       </c>
       <c r="I39">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H39)</f>
-        <v>5.1673220407395748E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="8:9" x14ac:dyDescent="0.45">
+        <v>5.1692805134746278E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H40" s="1">
         <f t="shared" si="0"/>
         <v>44729</v>
       </c>
       <c r="I40">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H40)</f>
-        <v>5.2489204425372415E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="8:9" x14ac:dyDescent="0.45">
+        <v>5.0773468600526339E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H41" s="1">
         <f t="shared" si="0"/>
         <v>44759</v>
       </c>
       <c r="I41">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H41)</f>
-        <v>5.3670447161006329E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="8:9" x14ac:dyDescent="0.45">
+        <v>4.7341646129006154E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H42" s="1">
         <f t="shared" si="0"/>
         <v>44789</v>
       </c>
       <c r="I42">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H42)</f>
-        <v>5.479233883230461E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="8:9" x14ac:dyDescent="0.45">
+        <v>4.4096176012196953E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H43" s="1">
         <f t="shared" si="0"/>
         <v>44819</v>
       </c>
       <c r="I43">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H43)</f>
-        <v>5.5859242333788917E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="8:9" x14ac:dyDescent="0.45">
+        <v>4.1022295144780951E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H44" s="1">
         <f t="shared" si="0"/>
         <v>44849</v>
       </c>
       <c r="I44">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H44)</f>
-        <v>5.6875103220763057E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="8:9" x14ac:dyDescent="0.45">
+        <v>3.8106758369680582E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H45" s="1">
         <f t="shared" si="0"/>
         <v>44879</v>
       </c>
       <c r="I45">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H45)</f>
-        <v>5.784349843911385E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="8:9" x14ac:dyDescent="0.45">
+        <v>3.5337648423971801E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H46" s="1">
         <f t="shared" si="0"/>
         <v>44909</v>
       </c>
       <c r="I46">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H46)</f>
-        <v>5.8767678383942368E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="8:9" x14ac:dyDescent="0.45">
+        <v>3.2704213721803654E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H47" s="1">
         <f t="shared" si="0"/>
         <v>44939</v>
       </c>
       <c r="I47">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H47)</f>
-        <v>5.9650603328636365E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="8:9" x14ac:dyDescent="0.45">
+        <v>3.0196729333954675E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H48" s="1">
         <f t="shared" si="0"/>
         <v>44969</v>
       </c>
       <c r="I48">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H48)</f>
-        <v>6.0494975084206981E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="8:9" x14ac:dyDescent="0.45">
+        <v>2.7806377386607739E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H49" s="1">
         <f t="shared" si="0"/>
         <v>44999</v>
       </c>
       <c r="I49">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H49)</f>
-        <v>6.1303264601846097E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="8:9" x14ac:dyDescent="0.45">
+        <v>2.5525143788556193E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H50" s="1">
         <f t="shared" si="0"/>
         <v>45029</v>
       </c>
       <c r="I50">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H50)</f>
-        <v>6.2077736112429394E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="8:9" x14ac:dyDescent="0.45">
+        <v>2.3345728745441052E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H51" s="1">
         <f t="shared" si="0"/>
         <v>45059</v>
       </c>
       <c r="I51">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H51)</f>
-        <v>6.2820468299426002E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="8:9" x14ac:dyDescent="0.45">
+        <v>2.126146896161818E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H52" s="1">
         <f t="shared" si="0"/>
         <v>45089</v>
       </c>
       <c r="I52">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H52)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H53" s="1">
         <f t="shared" si="0"/>
         <v>45119</v>
       </c>
       <c r="I53">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H53)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H54" s="1">
         <f t="shared" si="0"/>
         <v>45149</v>
       </c>
       <c r="I54">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H54)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H55" s="1">
         <f t="shared" si="0"/>
         <v>45179</v>
       </c>
       <c r="I55">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H55)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H56" s="1">
         <f t="shared" si="0"/>
         <v>45209</v>
       </c>
       <c r="I56">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H56)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H57" s="1">
         <f t="shared" si="0"/>
         <v>45239</v>
       </c>
       <c r="I57">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H57)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H58" s="1">
         <f t="shared" si="0"/>
         <v>45269</v>
       </c>
       <c r="I58">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H58)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H59" s="1">
         <f t="shared" si="0"/>
         <v>45299</v>
       </c>
       <c r="I59">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H59)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H60" s="1">
         <f t="shared" si="0"/>
         <v>45329</v>
       </c>
       <c r="I60">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H60)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H61" s="1">
         <f t="shared" si="0"/>
         <v>45359</v>
       </c>
       <c r="I61">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H61)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H62" s="1">
         <f t="shared" si="0"/>
         <v>45389</v>
       </c>
       <c r="I62">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H62)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H63" s="1">
         <f t="shared" si="0"/>
         <v>45419</v>
       </c>
       <c r="I63">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H63)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H64" s="1">
         <f t="shared" si="0"/>
         <v>45449</v>
       </c>
       <c r="I64">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H64)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H65" s="1">
         <f t="shared" si="0"/>
         <v>45479</v>
       </c>
       <c r="I65">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H65)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H66" s="1">
         <f t="shared" si="0"/>
         <v>45509</v>
       </c>
       <c r="I66">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H66)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H67" s="1">
         <f t="shared" si="0"/>
         <v>45539</v>
       </c>
       <c r="I67">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H67)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H68" s="1">
         <f t="shared" si="0"/>
         <v>45569</v>
       </c>
       <c r="I68">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H68)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H69" s="1">
         <f t="shared" ref="H69:H103" si="1">H68+$H$2</f>
         <v>45599</v>
       </c>
       <c r="I69">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H69)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H70" s="1">
         <f t="shared" si="1"/>
         <v>45629</v>
       </c>
       <c r="I70">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H70)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H71" s="1">
         <f t="shared" si="1"/>
         <v>45659</v>
       </c>
       <c r="I71">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H71)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H72" s="1">
         <f t="shared" si="1"/>
         <v>45689</v>
       </c>
       <c r="I72">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H72)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H73" s="1">
         <f t="shared" si="1"/>
         <v>45719</v>
       </c>
       <c r="I73">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H73)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H74" s="1">
         <f t="shared" si="1"/>
         <v>45749</v>
       </c>
       <c r="I74">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H74)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H75" s="1">
         <f t="shared" si="1"/>
         <v>45779</v>
       </c>
       <c r="I75">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H75)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H76" s="1">
         <f t="shared" si="1"/>
         <v>45809</v>
       </c>
       <c r="I76">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H76)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H77" s="1">
         <f t="shared" si="1"/>
         <v>45839</v>
       </c>
       <c r="I77">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H77)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H78" s="1">
         <f t="shared" si="1"/>
         <v>45869</v>
       </c>
       <c r="I78">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H78)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H79" s="1">
         <f t="shared" si="1"/>
         <v>45899</v>
       </c>
       <c r="I79">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H79)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H80" s="1">
         <f t="shared" si="1"/>
         <v>45929</v>
       </c>
       <c r="I80">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H80)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H81" s="1">
         <f t="shared" si="1"/>
         <v>45959</v>
       </c>
       <c r="I81">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H81)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H82" s="1">
         <f t="shared" si="1"/>
         <v>45989</v>
       </c>
       <c r="I82">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H82)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H83" s="1">
         <f t="shared" si="1"/>
         <v>46019</v>
       </c>
       <c r="I83">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H83)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H84" s="1">
         <f t="shared" si="1"/>
         <v>46049</v>
       </c>
       <c r="I84">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H84)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H85" s="1">
         <f t="shared" si="1"/>
         <v>46079</v>
       </c>
       <c r="I85">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H85)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H86" s="1">
         <f t="shared" si="1"/>
         <v>46109</v>
       </c>
       <c r="I86">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H86)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H87" s="1">
         <f t="shared" si="1"/>
         <v>46139</v>
       </c>
       <c r="I87">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H87)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H88" s="1">
         <f t="shared" si="1"/>
         <v>46169</v>
       </c>
       <c r="I88">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H88)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H89" s="1">
         <f t="shared" si="1"/>
         <v>46199</v>
       </c>
       <c r="I89">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H89)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H90" s="1">
         <f t="shared" si="1"/>
         <v>46229</v>
       </c>
       <c r="I90">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H90)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H91" s="1">
         <f t="shared" si="1"/>
         <v>46259</v>
       </c>
       <c r="I91">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H91)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H92" s="1">
         <f t="shared" si="1"/>
         <v>46289</v>
       </c>
       <c r="I92">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H92)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H93" s="1">
         <f t="shared" si="1"/>
         <v>46319</v>
       </c>
       <c r="I93">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H93)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H94" s="1">
         <f t="shared" si="1"/>
         <v>46349</v>
       </c>
       <c r="I94">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H94)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H95" s="1">
         <f t="shared" si="1"/>
         <v>46379</v>
       </c>
       <c r="I95">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H95)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H96" s="1">
         <f t="shared" si="1"/>
         <v>46409</v>
       </c>
       <c r="I96">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H96)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H97" s="1">
         <f t="shared" si="1"/>
         <v>46439</v>
       </c>
       <c r="I97">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H97)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H98" s="1">
         <f t="shared" si="1"/>
         <v>46469</v>
       </c>
       <c r="I98">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H98)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H99" s="1">
         <f t="shared" si="1"/>
         <v>46499</v>
       </c>
       <c r="I99">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H99)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H100" s="1">
         <f t="shared" si="1"/>
         <v>46529</v>
       </c>
       <c r="I100">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H100)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H101" s="1">
         <f t="shared" si="1"/>
         <v>46559</v>
       </c>
       <c r="I101">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H101)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H102" s="1">
         <f t="shared" si="1"/>
         <v>46589</v>
       </c>
       <c r="I102">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H102)</f>
-        <v>6.3486737846446498E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="8:9" x14ac:dyDescent="0.45">
+        <v>1.9658459765005361E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H103" s="1">
         <f t="shared" si="1"/>
         <v>46619</v>
       </c>
       <c r="I103">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H103)</f>
-        <v>6.3486737846446498E-2</v>
+        <v>1.9658459765005361E-2</v>
       </c>
     </row>
   </sheetData>

--- a/xll_isda_cds.xlsx
+++ b/xll_isda_cds.xlsx
@@ -632,196 +632,196 @@
                   <c:v>5.1692805134746278E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.0773468600526339E-2</c:v>
+                  <c:v>5.253277729427408E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.7341646129006154E-2</c:v>
+                  <c:v>5.3719672799205975E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.4096176012196953E-2</c:v>
+                  <c:v>5.4846939059917332E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.1022295144780951E-2</c:v>
+                  <c:v>5.591895899533883E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.8106758369680582E-2</c:v>
+                  <c:v>5.6939696309899368E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.5337648423971801E-2</c:v>
+                  <c:v>5.7912744437645713E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.2704213721803654E-2</c:v>
+                  <c:v>5.884136878648305E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.0196729333954675E-2</c:v>
+                  <c:v>5.9728543328532169E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.7806377386607739E-2</c:v>
+                  <c:v>6.0576982400059487E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.5525143788556193E-2</c:v>
+                  <c:v>6.1389168426969398E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.3345728745441052E-2</c:v>
+                  <c:v>6.2167376172116429E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.126146896161818E-2</c:v>
+                  <c:v>6.2913694003021936E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.9658459765005361E-2</c:v>
+                  <c:v>6.3489083428538387E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1888,7 +1888,7 @@
   <dimension ref="B2:I103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="C3" s="3">
         <f>_xll.JPMCDS.BUILD.IR.ZERO.CURVE(C2, F6:F10, F15:F17)</f>
-        <v>7202171</v>
+        <v>-5969981</v>
       </c>
       <c r="H3" s="1">
         <f>C2</f>
@@ -1962,14 +1962,14 @@
       </c>
       <c r="D6" cm="1">
         <f t="array" ref="D6">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET(B6, C6)</f>
-        <v>-769478</v>
+        <v>1763</v>
       </c>
       <c r="E6">
         <v>0.02</v>
       </c>
       <c r="F6" cm="1">
         <f t="array" ref="F6">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET.SET(D6, E6, $C$2)</f>
-        <v>-769478</v>
+        <v>1763</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="0"/>
@@ -1989,14 +1989,14 @@
       </c>
       <c r="D7" cm="1">
         <f t="array" ref="D7">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET(B7, C7)</f>
-        <v>-769437</v>
+        <v>1729</v>
       </c>
       <c r="E7">
         <v>0.02</v>
       </c>
       <c r="F7" cm="1">
         <f t="array" ref="F7">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET.SET(D7, E7, $C$2)</f>
-        <v>-769437</v>
+        <v>1729</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="0"/>
@@ -2016,14 +2016,14 @@
       </c>
       <c r="D8" cm="1">
         <f t="array" ref="D8">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET(B8, C8)</f>
-        <v>-39378</v>
+        <v>1687</v>
       </c>
       <c r="E8">
         <v>0.02</v>
       </c>
       <c r="F8" cm="1">
         <f t="array" ref="F8">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET.SET(D8, E8, $C$2)</f>
-        <v>-39378</v>
+        <v>1687</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="0"/>
@@ -2043,14 +2043,14 @@
       </c>
       <c r="D9" cm="1">
         <f t="array" ref="D9">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET(B9, C9)</f>
-        <v>-769485</v>
+        <v>1758</v>
       </c>
       <c r="E9">
         <v>0.03</v>
       </c>
       <c r="F9" cm="1">
         <f t="array" ref="F9">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET.SET(D9, E9, $C$2)</f>
-        <v>-769485</v>
+        <v>1758</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="0"/>
@@ -2070,14 +2070,14 @@
       </c>
       <c r="D10" cm="1">
         <f t="array" ref="D10">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET(B10, C10)</f>
-        <v>-769482</v>
+        <v>1646</v>
       </c>
       <c r="E10">
         <v>0.03</v>
       </c>
       <c r="F10" cm="1">
         <f t="array" ref="F10">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET.SET(D10, E10, $C$2)</f>
-        <v>-769482</v>
+        <v>1646</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="0"/>
@@ -2140,14 +2140,14 @@
       </c>
       <c r="D15" cm="1">
         <f t="array" ref="D15">_xll.JPMCDS.INSTRUMENT.INTEREST.RATE.SWAP(B15,C15)</f>
-        <v>520517</v>
+        <v>1675</v>
       </c>
       <c r="E15">
         <v>0.04</v>
       </c>
       <c r="F15" cm="1">
         <f t="array" ref="F15">_xll.JPMCDS.INSTRUMENT.INTEREST.RATE.SWAP.SET(D15, E15, $C$2)</f>
-        <v>520517</v>
+        <v>1675</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="0"/>
@@ -2167,14 +2167,14 @@
       </c>
       <c r="D16" cm="1">
         <f t="array" ref="D16">_xll.JPMCDS.INSTRUMENT.INTEREST.RATE.SWAP(B16,C16)</f>
-        <v>520453</v>
+        <v>1731</v>
       </c>
       <c r="E16">
         <v>0.05</v>
       </c>
       <c r="F16" cm="1">
         <f t="array" ref="F16">_xll.JPMCDS.INSTRUMENT.INTEREST.RATE.SWAP.SET(D16, E16, $C$2)</f>
-        <v>520453</v>
+        <v>1731</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="0"/>
@@ -2194,14 +2194,14 @@
       </c>
       <c r="D17" cm="1">
         <f t="array" ref="D17">_xll.JPMCDS.INSTRUMENT.INTEREST.RATE.SWAP(B17,C17)</f>
-        <v>520477</v>
+        <v>1729</v>
       </c>
       <c r="E17">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="F17" cm="1">
         <f t="array" ref="F17">_xll.JPMCDS.INSTRUMENT.INTEREST.RATE.SWAP.SET(D17, E17, $C$2)</f>
-        <v>520477</v>
+        <v>1729</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="0"/>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="I40">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H40)</f>
-        <v>5.0773468600526339E-2</v>
+        <v>5.253277729427408E-2</v>
       </c>
     </row>
     <row r="41" spans="8:9" x14ac:dyDescent="0.25">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="I41">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H41)</f>
-        <v>4.7341646129006154E-2</v>
+        <v>5.3719672799205975E-2</v>
       </c>
     </row>
     <row r="42" spans="8:9" x14ac:dyDescent="0.25">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="I42">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H42)</f>
-        <v>4.4096176012196953E-2</v>
+        <v>5.4846939059917332E-2</v>
       </c>
     </row>
     <row r="43" spans="8:9" x14ac:dyDescent="0.25">
@@ -2469,7 +2469,7 @@
       </c>
       <c r="I43">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H43)</f>
-        <v>4.1022295144780951E-2</v>
+        <v>5.591895899533883E-2</v>
       </c>
     </row>
     <row r="44" spans="8:9" x14ac:dyDescent="0.25">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="I44">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H44)</f>
-        <v>3.8106758369680582E-2</v>
+        <v>5.6939696309899368E-2</v>
       </c>
     </row>
     <row r="45" spans="8:9" x14ac:dyDescent="0.25">
@@ -2489,7 +2489,7 @@
       </c>
       <c r="I45">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H45)</f>
-        <v>3.5337648423971801E-2</v>
+        <v>5.7912744437645713E-2</v>
       </c>
     </row>
     <row r="46" spans="8:9" x14ac:dyDescent="0.25">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="I46">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H46)</f>
-        <v>3.2704213721803654E-2</v>
+        <v>5.884136878648305E-2</v>
       </c>
     </row>
     <row r="47" spans="8:9" x14ac:dyDescent="0.25">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="I47">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H47)</f>
-        <v>3.0196729333954675E-2</v>
+        <v>5.9728543328532169E-2</v>
       </c>
     </row>
     <row r="48" spans="8:9" x14ac:dyDescent="0.25">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="I48">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H48)</f>
-        <v>2.7806377386607739E-2</v>
+        <v>6.0576982400059487E-2</v>
       </c>
     </row>
     <row r="49" spans="8:9" x14ac:dyDescent="0.25">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="I49">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H49)</f>
-        <v>2.5525143788556193E-2</v>
+        <v>6.1389168426969398E-2</v>
       </c>
     </row>
     <row r="50" spans="8:9" x14ac:dyDescent="0.25">
@@ -2539,7 +2539,7 @@
       </c>
       <c r="I50">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H50)</f>
-        <v>2.3345728745441052E-2</v>
+        <v>6.2167376172116429E-2</v>
       </c>
     </row>
     <row r="51" spans="8:9" x14ac:dyDescent="0.25">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="I51">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H51)</f>
-        <v>2.126146896161818E-2</v>
+        <v>6.2913694003021936E-2</v>
       </c>
     </row>
     <row r="52" spans="8:9" x14ac:dyDescent="0.25">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="I52">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H52)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="53" spans="8:9" x14ac:dyDescent="0.25">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I53">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H53)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="54" spans="8:9" x14ac:dyDescent="0.25">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="I54">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H54)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="55" spans="8:9" x14ac:dyDescent="0.25">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="I55">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H55)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="56" spans="8:9" x14ac:dyDescent="0.25">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="I56">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H56)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="57" spans="8:9" x14ac:dyDescent="0.25">
@@ -2609,7 +2609,7 @@
       </c>
       <c r="I57">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H57)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="58" spans="8:9" x14ac:dyDescent="0.25">
@@ -2619,7 +2619,7 @@
       </c>
       <c r="I58">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H58)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="59" spans="8:9" x14ac:dyDescent="0.25">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="I59">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H59)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="60" spans="8:9" x14ac:dyDescent="0.25">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="I60">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H60)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="61" spans="8:9" x14ac:dyDescent="0.25">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="I61">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H61)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="62" spans="8:9" x14ac:dyDescent="0.25">
@@ -2659,7 +2659,7 @@
       </c>
       <c r="I62">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H62)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="63" spans="8:9" x14ac:dyDescent="0.25">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="I63">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H63)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="64" spans="8:9" x14ac:dyDescent="0.25">
@@ -2679,7 +2679,7 @@
       </c>
       <c r="I64">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H64)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="65" spans="8:9" x14ac:dyDescent="0.25">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="I65">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H65)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="66" spans="8:9" x14ac:dyDescent="0.25">
@@ -2699,7 +2699,7 @@
       </c>
       <c r="I66">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H66)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="67" spans="8:9" x14ac:dyDescent="0.25">
@@ -2709,7 +2709,7 @@
       </c>
       <c r="I67">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H67)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="68" spans="8:9" x14ac:dyDescent="0.25">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="I68">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H68)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="69" spans="8:9" x14ac:dyDescent="0.25">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="I69">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H69)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="70" spans="8:9" x14ac:dyDescent="0.25">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="I70">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H70)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="71" spans="8:9" x14ac:dyDescent="0.25">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="I71">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H71)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="72" spans="8:9" x14ac:dyDescent="0.25">
@@ -2759,7 +2759,7 @@
       </c>
       <c r="I72">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H72)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="73" spans="8:9" x14ac:dyDescent="0.25">
@@ -2769,7 +2769,7 @@
       </c>
       <c r="I73">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H73)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="74" spans="8:9" x14ac:dyDescent="0.25">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="I74">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H74)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="75" spans="8:9" x14ac:dyDescent="0.25">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="I75">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H75)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="76" spans="8:9" x14ac:dyDescent="0.25">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="I76">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H76)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="77" spans="8:9" x14ac:dyDescent="0.25">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I77">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H77)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="78" spans="8:9" x14ac:dyDescent="0.25">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="I78">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H78)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="79" spans="8:9" x14ac:dyDescent="0.25">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="I79">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H79)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="80" spans="8:9" x14ac:dyDescent="0.25">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="I80">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H80)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="81" spans="8:9" x14ac:dyDescent="0.25">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="I81">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H81)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="82" spans="8:9" x14ac:dyDescent="0.25">
@@ -2859,7 +2859,7 @@
       </c>
       <c r="I82">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H82)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="83" spans="8:9" x14ac:dyDescent="0.25">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="I83">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H83)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="84" spans="8:9" x14ac:dyDescent="0.25">
@@ -2879,7 +2879,7 @@
       </c>
       <c r="I84">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H84)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="85" spans="8:9" x14ac:dyDescent="0.25">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="I85">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H85)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="86" spans="8:9" x14ac:dyDescent="0.25">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="I86">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H86)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="87" spans="8:9" x14ac:dyDescent="0.25">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="I87">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H87)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="88" spans="8:9" x14ac:dyDescent="0.25">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="I88">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H88)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="89" spans="8:9" x14ac:dyDescent="0.25">
@@ -2929,7 +2929,7 @@
       </c>
       <c r="I89">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H89)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="90" spans="8:9" x14ac:dyDescent="0.25">
@@ -2939,7 +2939,7 @@
       </c>
       <c r="I90">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H90)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="91" spans="8:9" x14ac:dyDescent="0.25">
@@ -2949,7 +2949,7 @@
       </c>
       <c r="I91">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H91)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="92" spans="8:9" x14ac:dyDescent="0.25">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="I92">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H92)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="93" spans="8:9" x14ac:dyDescent="0.25">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="I93">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H93)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="94" spans="8:9" x14ac:dyDescent="0.25">
@@ -2979,7 +2979,7 @@
       </c>
       <c r="I94">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H94)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="95" spans="8:9" x14ac:dyDescent="0.25">
@@ -2989,7 +2989,7 @@
       </c>
       <c r="I95">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H95)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="96" spans="8:9" x14ac:dyDescent="0.25">
@@ -2999,7 +2999,7 @@
       </c>
       <c r="I96">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H96)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="97" spans="8:9" x14ac:dyDescent="0.25">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="I97">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H97)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="98" spans="8:9" x14ac:dyDescent="0.25">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="I98">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H98)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="99" spans="8:9" x14ac:dyDescent="0.25">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="I99">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H99)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="100" spans="8:9" x14ac:dyDescent="0.25">
@@ -3039,7 +3039,7 @@
       </c>
       <c r="I100">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H100)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="101" spans="8:9" x14ac:dyDescent="0.25">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I101">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H101)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="102" spans="8:9" x14ac:dyDescent="0.25">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="I102">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H102)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
     <row r="103" spans="8:9" x14ac:dyDescent="0.25">
@@ -3069,7 +3069,7 @@
       </c>
       <c r="I103">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H103)</f>
-        <v>1.9658459765005361E-2</v>
+        <v>6.3489083428538387E-2</v>
       </c>
     </row>
   </sheetData>

--- a/xll_isda_cds.xlsx
+++ b/xll_isda_cds.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalx\source\repos\isda_cds_model\xll_isda_cds\xll_isda_cds\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\Source\Repos\keithalewis\xll_isda_cds\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E83951-59EE-4C71-97AF-1F9CCE3BCB55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13875" activeTab="1"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,14 +34,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -84,7 +85,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="ddd"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -114,11 +118,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -151,7 +156,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1574,15 +1578,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>519112</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1872,34 +1876,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:AN103"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I103"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="3" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.73046875" customWidth="1"/>
+    <col min="3" max="4" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1909,14 +1910,70 @@
       <c r="H2">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K2" s="4">
+        <f>K3</f>
+        <v>43622</v>
+      </c>
+      <c r="L2" s="4">
+        <f t="shared" ref="L2:X2" si="0">L3</f>
+        <v>43623</v>
+      </c>
+      <c r="M2" s="4">
+        <f t="shared" si="0"/>
+        <v>43629</v>
+      </c>
+      <c r="N2" s="4">
+        <f t="shared" si="0"/>
+        <v>43654</v>
+      </c>
+      <c r="O2" s="4">
+        <f t="shared" si="0"/>
+        <v>43714</v>
+      </c>
+      <c r="P2" s="4">
+        <f t="shared" si="0"/>
+        <v>43805</v>
+      </c>
+      <c r="Q2" s="4">
+        <f t="shared" si="0"/>
+        <v>43808</v>
+      </c>
+      <c r="R2" s="4">
+        <f t="shared" si="0"/>
+        <v>43990</v>
+      </c>
+      <c r="S2" s="4">
+        <f t="shared" si="0"/>
+        <v>44172</v>
+      </c>
+      <c r="T2" s="4">
+        <f t="shared" si="0"/>
+        <v>44354</v>
+      </c>
+      <c r="U2" s="4">
+        <f t="shared" si="0"/>
+        <v>44536</v>
+      </c>
+      <c r="V2" s="4">
+        <f t="shared" si="0"/>
+        <v>44718</v>
+      </c>
+      <c r="W2" s="4">
+        <f t="shared" si="0"/>
+        <v>44901</v>
+      </c>
+      <c r="X2" s="4">
+        <f t="shared" si="0"/>
+        <v>45083</v>
+      </c>
+    </row>
+    <row r="3" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3">
         <f>_xll.JPMCDS.BUILD.IR.ZERO.CURVE(C2, F6:F10, F15:F17)</f>
-        <v>-5969981</v>
+        <v>1729</v>
       </c>
       <c r="H3" s="1">
         <f>C2</f>
@@ -1926,8 +1983,67 @@
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H3)</f>
         <v>2.0479022694424476E-2</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K3" s="1" cm="1">
+        <f t="array" ref="K3:X4">_xll.JPMCDS.TCURVE.FLOWS(C3)</f>
+        <v>43622</v>
+      </c>
+      <c r="L3" s="1">
+        <v>43623</v>
+      </c>
+      <c r="M3" s="1">
+        <v>43629</v>
+      </c>
+      <c r="N3" s="1">
+        <v>43654</v>
+      </c>
+      <c r="O3" s="1">
+        <v>43714</v>
+      </c>
+      <c r="P3" s="1">
+        <v>43805</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>43808</v>
+      </c>
+      <c r="R3" s="1">
+        <v>43990</v>
+      </c>
+      <c r="S3" s="1">
+        <v>44172</v>
+      </c>
+      <c r="T3" s="1">
+        <v>44354</v>
+      </c>
+      <c r="U3" s="1">
+        <v>44536</v>
+      </c>
+      <c r="V3" s="1">
+        <v>44718</v>
+      </c>
+      <c r="W3" s="1">
+        <v>44901</v>
+      </c>
+      <c r="X3" s="1">
+        <v>45083</v>
+      </c>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+    </row>
+    <row r="4" spans="2:40" x14ac:dyDescent="0.45">
       <c r="H4" s="1">
         <f>H3+$H$2</f>
         <v>43649</v>
@@ -1936,8 +2052,50 @@
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H4)</f>
         <v>2.0465632941256029E-2</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>2.0479022694424476E-2</v>
+      </c>
+      <c r="L4">
+        <v>2.0479022694424476E-2</v>
+      </c>
+      <c r="M4">
+        <v>2.0479022694424476E-2</v>
+      </c>
+      <c r="N4">
+        <v>2.0464676537039095E-2</v>
+      </c>
+      <c r="O4">
+        <v>2.0430354521299154E-2</v>
+      </c>
+      <c r="P4">
+        <v>3.0643480370600162E-2</v>
+      </c>
+      <c r="Q4">
+        <v>3.0636020095270888E-2</v>
+      </c>
+      <c r="R4">
+        <v>3.0409140914257948E-2</v>
+      </c>
+      <c r="S4">
+        <v>3.7560449348596814E-2</v>
+      </c>
+      <c r="T4">
+        <v>4.1188984761849262E-2</v>
+      </c>
+      <c r="U4">
+        <v>4.7702680308839174E-2</v>
+      </c>
+      <c r="V4">
+        <v>5.2081697635378038E-2</v>
+      </c>
+      <c r="W4">
+        <v>5.859790638758211E-2</v>
+      </c>
+      <c r="X4">
+        <v>6.3489083428538387E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -1945,7 +2103,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" ref="H5:H68" si="0">H4+$H$2</f>
+        <f t="shared" ref="H5:H68" si="1">H4+$H$2</f>
         <v>43679</v>
       </c>
       <c r="I5">
@@ -1953,7 +2111,7 @@
         <v>2.0442033410969396E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>1</v>
       </c>
@@ -1962,17 +2120,17 @@
       </c>
       <c r="D6" cm="1">
         <f t="array" ref="D6">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET(B6, C6)</f>
-        <v>1763</v>
+        <v>1712</v>
       </c>
       <c r="E6">
         <v>0.02</v>
       </c>
       <c r="F6" cm="1">
         <f t="array" ref="F6">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET.SET(D6, E6, $C$2)</f>
-        <v>1763</v>
+        <v>1712</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43709</v>
       </c>
       <c r="I6">
@@ -1980,7 +2138,7 @@
         <v>2.0431466790747033E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>1</v>
       </c>
@@ -1989,17 +2147,17 @@
       </c>
       <c r="D7" cm="1">
         <f t="array" ref="D7">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET(B7, C7)</f>
-        <v>1729</v>
+        <v>1717</v>
       </c>
       <c r="E7">
         <v>0.02</v>
       </c>
       <c r="F7" cm="1">
         <f t="array" ref="F7">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET.SET(D7, E7, $C$2)</f>
-        <v>1729</v>
+        <v>1717</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43739</v>
       </c>
       <c r="I7">
@@ -2007,7 +2165,7 @@
         <v>2.4766919390539988E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>3</v>
       </c>
@@ -2016,17 +2174,17 @@
       </c>
       <c r="D8" cm="1">
         <f t="array" ref="D8">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET(B8, C8)</f>
-        <v>1687</v>
+        <v>1760</v>
       </c>
       <c r="E8">
         <v>0.02</v>
       </c>
       <c r="F8" cm="1">
         <f t="array" ref="F8">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET.SET(D8, E8, $C$2)</f>
-        <v>1687</v>
+        <v>1760</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43769</v>
       </c>
       <c r="I8">
@@ -2034,7 +2192,7 @@
         <v>2.8075030007503887E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>6</v>
       </c>
@@ -2043,17 +2201,17 @@
       </c>
       <c r="D9" cm="1">
         <f t="array" ref="D9">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET(B9, C9)</f>
-        <v>1758</v>
+        <v>1729</v>
       </c>
       <c r="E9">
         <v>0.03</v>
       </c>
       <c r="F9" cm="1">
         <f t="array" ref="F9">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET.SET(D9, E9, $C$2)</f>
-        <v>1758</v>
+        <v>1729</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43799</v>
       </c>
       <c r="I9">
@@ -2061,7 +2219,7 @@
         <v>3.0286367797119906E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>1</v>
       </c>
@@ -2070,17 +2228,17 @@
       </c>
       <c r="D10" cm="1">
         <f t="array" ref="D10">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET(B10, C10)</f>
-        <v>1646</v>
+        <v>1721</v>
       </c>
       <c r="E10">
         <v>0.03</v>
       </c>
       <c r="F10" cm="1">
         <f t="array" ref="F10">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET.SET(D10, E10, $C$2)</f>
-        <v>1646</v>
+        <v>1721</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43829</v>
       </c>
       <c r="I10">
@@ -2088,9 +2246,9 @@
         <v>3.0589767593514727E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:40" x14ac:dyDescent="0.45">
       <c r="H11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43859</v>
       </c>
       <c r="I11">
@@ -2098,9 +2256,9 @@
         <v>3.0537736010148198E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:40" x14ac:dyDescent="0.45">
       <c r="H12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43889</v>
       </c>
       <c r="I12">
@@ -2108,9 +2266,9 @@
         <v>3.0497268817017975E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:40" x14ac:dyDescent="0.45">
       <c r="H13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43919</v>
       </c>
       <c r="I13">
@@ -2118,12 +2276,12 @@
         <v>3.0464896206645165E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43949</v>
       </c>
       <c r="I14">
@@ -2131,7 +2289,7 @@
         <v>3.0438410281857342E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>2</v>
       </c>
@@ -2140,17 +2298,17 @@
       </c>
       <c r="D15" cm="1">
         <f t="array" ref="D15">_xll.JPMCDS.INSTRUMENT.INTEREST.RATE.SWAP(B15,C15)</f>
-        <v>1675</v>
+        <v>1772</v>
       </c>
       <c r="E15">
         <v>0.04</v>
       </c>
       <c r="F15" cm="1">
         <f t="array" ref="F15">_xll.JPMCDS.INSTRUMENT.INTEREST.RATE.SWAP.SET(D15, E15, $C$2)</f>
-        <v>1675</v>
+        <v>1772</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43979</v>
       </c>
       <c r="I15">
@@ -2158,7 +2316,7 @@
         <v>3.041633919789688E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>3</v>
       </c>
@@ -2167,17 +2325,17 @@
       </c>
       <c r="D16" cm="1">
         <f t="array" ref="D16">_xll.JPMCDS.INSTRUMENT.INTEREST.RATE.SWAP(B16,C16)</f>
-        <v>1731</v>
+        <v>1774</v>
       </c>
       <c r="E16">
         <v>0.05</v>
       </c>
       <c r="F16" cm="1">
         <f t="array" ref="F16">_xll.JPMCDS.INSTRUMENT.INTEREST.RATE.SWAP.SET(D16, E16, $C$2)</f>
-        <v>1731</v>
+        <v>1774</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44009</v>
       </c>
       <c r="I16">
@@ -2185,7 +2343,7 @@
         <v>3.1464615699908105E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17">
         <v>4</v>
       </c>
@@ -2204,7 +2362,7 @@
         <v>1729</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44039</v>
       </c>
       <c r="I17">
@@ -2212,9 +2370,9 @@
         <v>3.2938531048446018E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="H18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44069</v>
       </c>
       <c r="I18">
@@ -2222,9 +2380,9 @@
         <v>3.4217627889381319E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="H19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44099</v>
       </c>
       <c r="I19">
@@ -2232,9 +2390,9 @@
         <v>3.5338136864962344E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="H20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44129</v>
       </c>
       <c r="I20">
@@ -2242,9 +2400,9 @@
         <v>3.63278293785807E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
       <c r="H21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44159</v>
       </c>
       <c r="I21">
@@ -2252,9 +2410,9 @@
         <v>3.720835025186231E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
       <c r="H22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44189</v>
       </c>
       <c r="I22">
@@ -2262,9 +2420,9 @@
         <v>3.7996818854921788E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
       <c r="H23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44219</v>
       </c>
       <c r="I23">
@@ -2272,9 +2430,9 @@
         <v>3.8706953055249516E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
       <c r="H24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44249</v>
       </c>
       <c r="I24">
@@ -2282,9 +2440,9 @@
         <v>3.9349874047397204E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
       <c r="H25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44279</v>
       </c>
       <c r="I25">
@@ -2292,9 +2450,9 @@
         <v>3.993469299362129E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
       <c r="H26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44309</v>
       </c>
       <c r="I26">
@@ -2302,9 +2460,9 @@
         <v>4.0468945500936382E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
       <c r="H27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44339</v>
       </c>
       <c r="I27">
@@ -2312,9 +2470,9 @@
         <v>4.095891807246943E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
       <c r="H28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44369</v>
       </c>
       <c r="I28">
@@ -2322,9 +2480,9 @@
         <v>4.1843525864032616E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
       <c r="H29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44399</v>
       </c>
       <c r="I29">
@@ -2332,9 +2490,9 @@
         <v>4.3078202773928487E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
       <c r="H30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44429</v>
       </c>
       <c r="I30">
@@ -2342,9 +2500,9 @@
         <v>4.4222726734658879E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
       <c r="H31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44459</v>
       </c>
       <c r="I31">
@@ -2352,9 +2510,9 @@
         <v>4.5286623440293106E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
       <c r="H32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44489</v>
       </c>
       <c r="I32">
@@ -2362,9 +2520,9 @@
         <v>4.6278122323753612E-2</v>
       </c>
     </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44519</v>
       </c>
       <c r="I33">
@@ -2372,9 +2530,9 @@
         <v>4.7204369784751066E-2</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44549</v>
       </c>
       <c r="I34">
@@ -2382,9 +2540,9 @@
         <v>4.807160167077118E-2</v>
       </c>
     </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44579</v>
       </c>
       <c r="I35">
@@ -2392,9 +2550,9 @@
         <v>4.8885283814579017E-2</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44609</v>
       </c>
       <c r="I36">
@@ -2402,9 +2560,9 @@
         <v>4.9650227323172036E-2</v>
       </c>
     </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44639</v>
       </c>
       <c r="I37">
@@ -2412,9 +2570,9 @@
         <v>5.0370683756185919E-2</v>
       </c>
     </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44669</v>
       </c>
       <c r="I38">
@@ -2422,9 +2580,9 @@
         <v>5.1050424170624664E-2</v>
       </c>
     </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44699</v>
       </c>
       <c r="I39">
@@ -2432,9 +2590,9 @@
         <v>5.1692805134746278E-2</v>
       </c>
     </row>
-    <row r="40" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44729</v>
       </c>
       <c r="I40">
@@ -2442,9 +2600,9 @@
         <v>5.253277729427408E-2</v>
       </c>
     </row>
-    <row r="41" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44759</v>
       </c>
       <c r="I41">
@@ -2452,9 +2610,9 @@
         <v>5.3719672799205975E-2</v>
       </c>
     </row>
-    <row r="42" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44789</v>
       </c>
       <c r="I42">
@@ -2462,9 +2620,9 @@
         <v>5.4846939059917332E-2</v>
       </c>
     </row>
-    <row r="43" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H43" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44819</v>
       </c>
       <c r="I43">
@@ -2472,9 +2630,9 @@
         <v>5.591895899533883E-2</v>
       </c>
     </row>
-    <row r="44" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H44" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44849</v>
       </c>
       <c r="I44">
@@ -2482,9 +2640,9 @@
         <v>5.6939696309899368E-2</v>
       </c>
     </row>
-    <row r="45" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H45" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44879</v>
       </c>
       <c r="I45">
@@ -2492,9 +2650,9 @@
         <v>5.7912744437645713E-2</v>
       </c>
     </row>
-    <row r="46" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H46" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44909</v>
       </c>
       <c r="I46">
@@ -2502,9 +2660,9 @@
         <v>5.884136878648305E-2</v>
       </c>
     </row>
-    <row r="47" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H47" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44939</v>
       </c>
       <c r="I47">
@@ -2512,9 +2670,9 @@
         <v>5.9728543328532169E-2</v>
       </c>
     </row>
-    <row r="48" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H48" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44969</v>
       </c>
       <c r="I48">
@@ -2522,9 +2680,9 @@
         <v>6.0576982400059487E-2</v>
       </c>
     </row>
-    <row r="49" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H49" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44999</v>
       </c>
       <c r="I49">
@@ -2532,9 +2690,9 @@
         <v>6.1389168426969398E-2</v>
       </c>
     </row>
-    <row r="50" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45029</v>
       </c>
       <c r="I50">
@@ -2542,9 +2700,9 @@
         <v>6.2167376172116429E-2</v>
       </c>
     </row>
-    <row r="51" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H51" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45059</v>
       </c>
       <c r="I51">
@@ -2552,9 +2710,9 @@
         <v>6.2913694003021936E-2</v>
       </c>
     </row>
-    <row r="52" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H52" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45089</v>
       </c>
       <c r="I52">
@@ -2562,9 +2720,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="53" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H53" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45119</v>
       </c>
       <c r="I53">
@@ -2572,9 +2730,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="54" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H54" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45149</v>
       </c>
       <c r="I54">
@@ -2582,9 +2740,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="55" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H55" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45179</v>
       </c>
       <c r="I55">
@@ -2592,9 +2750,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="56" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H56" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45209</v>
       </c>
       <c r="I56">
@@ -2602,9 +2760,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="57" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H57" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45239</v>
       </c>
       <c r="I57">
@@ -2612,9 +2770,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="58" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H58" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45269</v>
       </c>
       <c r="I58">
@@ -2622,9 +2780,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="59" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H59" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45299</v>
       </c>
       <c r="I59">
@@ -2632,9 +2790,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="60" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H60" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45329</v>
       </c>
       <c r="I60">
@@ -2642,9 +2800,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="61" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H61" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45359</v>
       </c>
       <c r="I61">
@@ -2652,9 +2810,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="62" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H62" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45389</v>
       </c>
       <c r="I62">
@@ -2662,9 +2820,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="63" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H63" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45419</v>
       </c>
       <c r="I63">
@@ -2672,9 +2830,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="64" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H64" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45449</v>
       </c>
       <c r="I64">
@@ -2682,9 +2840,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="65" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H65" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45479</v>
       </c>
       <c r="I65">
@@ -2692,9 +2850,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="66" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H66" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45509</v>
       </c>
       <c r="I66">
@@ -2702,9 +2860,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="67" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H67" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45539</v>
       </c>
       <c r="I67">
@@ -2712,9 +2870,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="68" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H68" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45569</v>
       </c>
       <c r="I68">
@@ -2722,9 +2880,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="69" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H69" s="1">
-        <f t="shared" ref="H69:H103" si="1">H68+$H$2</f>
+        <f t="shared" ref="H69:H103" si="2">H68+$H$2</f>
         <v>45599</v>
       </c>
       <c r="I69">
@@ -2732,9 +2890,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="70" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H70" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45629</v>
       </c>
       <c r="I70">
@@ -2742,9 +2900,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="71" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H71" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45659</v>
       </c>
       <c r="I71">
@@ -2752,9 +2910,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="72" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H72" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45689</v>
       </c>
       <c r="I72">
@@ -2762,9 +2920,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="73" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H73" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45719</v>
       </c>
       <c r="I73">
@@ -2772,9 +2930,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="74" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H74" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45749</v>
       </c>
       <c r="I74">
@@ -2782,9 +2940,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="75" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H75" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45779</v>
       </c>
       <c r="I75">
@@ -2792,9 +2950,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="76" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H76" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45809</v>
       </c>
       <c r="I76">
@@ -2802,9 +2960,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="77" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H77" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45839</v>
       </c>
       <c r="I77">
@@ -2812,9 +2970,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="78" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H78" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45869</v>
       </c>
       <c r="I78">
@@ -2822,9 +2980,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="79" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H79" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45899</v>
       </c>
       <c r="I79">
@@ -2832,9 +2990,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="80" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H80" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45929</v>
       </c>
       <c r="I80">
@@ -2842,9 +3000,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="81" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H81" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45959</v>
       </c>
       <c r="I81">
@@ -2852,9 +3010,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="82" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H82" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45989</v>
       </c>
       <c r="I82">
@@ -2862,9 +3020,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="83" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H83" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46019</v>
       </c>
       <c r="I83">
@@ -2872,9 +3030,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="84" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H84" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46049</v>
       </c>
       <c r="I84">
@@ -2882,9 +3040,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="85" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H85" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46079</v>
       </c>
       <c r="I85">
@@ -2892,9 +3050,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="86" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H86" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46109</v>
       </c>
       <c r="I86">
@@ -2902,9 +3060,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="87" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H87" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46139</v>
       </c>
       <c r="I87">
@@ -2912,9 +3070,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="88" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H88" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46169</v>
       </c>
       <c r="I88">
@@ -2922,9 +3080,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="89" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H89" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46199</v>
       </c>
       <c r="I89">
@@ -2932,9 +3090,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="90" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H90" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46229</v>
       </c>
       <c r="I90">
@@ -2942,9 +3100,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="91" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H91" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46259</v>
       </c>
       <c r="I91">
@@ -2952,9 +3110,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="92" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H92" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46289</v>
       </c>
       <c r="I92">
@@ -2962,9 +3120,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="93" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H93" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46319</v>
       </c>
       <c r="I93">
@@ -2972,9 +3130,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="94" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H94" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46349</v>
       </c>
       <c r="I94">
@@ -2982,9 +3140,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="95" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H95" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46379</v>
       </c>
       <c r="I95">
@@ -2992,9 +3150,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="96" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H96" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46409</v>
       </c>
       <c r="I96">
@@ -3002,9 +3160,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="97" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H97" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46439</v>
       </c>
       <c r="I97">
@@ -3012,9 +3170,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="98" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H98" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46469</v>
       </c>
       <c r="I98">
@@ -3022,9 +3180,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="99" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H99" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46499</v>
       </c>
       <c r="I99">
@@ -3032,9 +3190,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="100" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H100" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46529</v>
       </c>
       <c r="I100">
@@ -3042,9 +3200,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="101" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H101" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46559</v>
       </c>
       <c r="I101">
@@ -3052,9 +3210,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="102" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H102" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46589</v>
       </c>
       <c r="I102">
@@ -3062,9 +3220,9 @@
         <v>6.3489083428538387E-2</v>
       </c>
     </row>
-    <row r="103" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H103" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46619</v>
       </c>
       <c r="I103">
@@ -3077,4 +3235,82 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="9.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B3" s="1">
+        <v>43625</v>
+      </c>
+      <c r="D3" s="1">
+        <f>B3</f>
+        <v>43625</v>
+      </c>
+      <c r="E3" t="e" cm="1">
+        <f t="array" aca="1" ref="E3" ca="1">_xll.JPMCDS.TCURVE.RATE(B6, D3)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>0.05</v>
+      </c>
+      <c r="D4" s="1">
+        <f>D3+7</f>
+        <v>43632</v>
+      </c>
+      <c r="E4" t="e" cm="1">
+        <f t="array" ref="E4">_xll.JPMCDS.TCURVE.RATE(B7, D4)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="D5" s="1">
+        <f>D4+7</f>
+        <v>43639</v>
+      </c>
+      <c r="E5" t="e" cm="1">
+        <f t="array" ref="E5">_xll.JPMCDS.TCURVE.RATE(B8, D5)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B6" t="e" cm="1">
+        <f t="array" aca="1" ref="B6" ca="1">_xll.JPMCDS.TCURVE(B3, B3+1, B4,RATE_SIMPLE(), _xll.DAY_COUNT_ACT_ACT())</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D6" s="1">
+        <f>D5+7</f>
+        <v>43646</v>
+      </c>
+      <c r="E6" t="e" cm="1">
+        <f t="array" ref="E6">_xll.JPMCDS.TCURVE.RATE(B9, D6)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="D7" s="1">
+        <f>D6+7</f>
+        <v>43653</v>
+      </c>
+      <c r="E7" t="e" cm="1">
+        <f t="array" ref="E7">_xll.JPMCDS.TCURVE.RATE(B10, D7)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/xll_isda_cds.xlsx
+++ b/xll_isda_cds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21807"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\Source\Repos\keithalewis\xll_isda_cds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E83951-59EE-4C71-97AF-1F9CCE3BCB55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B062EB-EF82-4310-A9C1-AA16A4897379}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -636,196 +636,196 @@
                   <c:v>5.1692805134746278E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.253277729427408E-2</c:v>
+                  <c:v>5.2782167835033755E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.3719672799205975E-2</c:v>
+                  <c:v>5.4626060507124263E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.4846939059917332E-2</c:v>
+                  <c:v>5.6378379797373368E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.591895899533883E-2</c:v>
+                  <c:v>5.8045779894823957E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.6939696309899368E-2</c:v>
+                  <c:v>5.9634285740814974E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.7912744437645713E-2</c:v>
+                  <c:v>6.1149365667757971E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.884136878648305E-2</c:v>
+                  <c:v>6.2595994205867367E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.9728543328532169E-2</c:v>
+                  <c:v>6.3978706575728239E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.0576982400059487E-2</c:v>
+                  <c:v>6.5301646122648327E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.1389168426969398E-2</c:v>
+                  <c:v>6.6568605736541553E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6.2167376172116429E-2</c:v>
+                  <c:v>6.7783064128406512E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.2913694003021936E-2</c:v>
+                  <c:v>6.8948217693240998E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>7.0067008573255318E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>7.1142149439604507E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>7.2176145431635641E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>7.3171313626812173E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>7.4129800359526987E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>7.5053596661007971E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>7.5944552053864411E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>7.6804386902226351E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>7.7634703490867762E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>7.8436995983324653E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>7.9212659389118478E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>7.9962997653223233E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>8.0689230966395353E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>8.1392502382513499E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>8.2073883818372106E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>8.2734381502123311E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>8.3374940928577779E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>8.3996451372660541E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>8.4599750006303376E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>8.5185625658834141E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>8.5754822256363994E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>8.63080419716864E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>8.6845948112721061E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>8.7369167774473455E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>8.787829427679017E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>8.7961818413744036E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>8.7961818413744036E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>8.7961818413744036E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>8.7961818413744036E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>8.7961818413744036E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>8.7961818413744036E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>8.7961818413744036E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>8.7961818413744036E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>8.7961818413744036E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>8.7961818413744036E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>8.7961818413744036E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>8.7961818413744036E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>8.7961818413744036E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>8.7961818413744036E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>8.7961818413744036E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>8.7961818413744036E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>8.7961818413744036E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>8.7961818413744036E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>8.7961818413744036E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>8.7961818413744036E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>8.7961818413744036E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>8.7961818413744036E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>8.7961818413744036E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>8.7961818413744036E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>8.7961818413744036E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>8.7961818413744036E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>6.3489083428538387E-2</c:v>
+                  <c:v>8.7961818413744036E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1879,7 +1879,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:AN103"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1973,7 +1975,7 @@
       </c>
       <c r="C3" s="3">
         <f>_xll.JPMCDS.BUILD.IR.ZERO.CURVE(C2, F6:F10, F15:F17)</f>
-        <v>1729</v>
+        <v>-275</v>
       </c>
       <c r="H3" s="1">
         <f>C2</f>
@@ -1984,7 +1986,7 @@
         <v>2.0479022694424476E-2</v>
       </c>
       <c r="K3" s="1" cm="1">
-        <f t="array" ref="K3:X4">_xll.JPMCDS.TCURVE.FLOWS(C3)</f>
+        <f t="array" ref="K3:AB4">_xll.JPMCDS.TCURVE.POINTS(C3)</f>
         <v>43622</v>
       </c>
       <c r="L3" s="1">
@@ -2026,10 +2028,18 @@
       <c r="X3" s="1">
         <v>45083</v>
       </c>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
+      <c r="Y3" s="1">
+        <v>45266</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>45449</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>45632</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>45814</v>
+      </c>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
@@ -2089,10 +2099,22 @@
         <v>5.2081697635378038E-2</v>
       </c>
       <c r="W4">
-        <v>5.859790638758211E-2</v>
+        <v>6.2216656037062279E-2</v>
       </c>
       <c r="X4">
-        <v>6.3489083428538387E-2</v>
+        <v>6.9846826084124958E-2</v>
+      </c>
+      <c r="Y4">
+        <v>7.5856884365054444E-2</v>
+      </c>
+      <c r="Z4">
+        <v>8.0689230966395353E-2</v>
+      </c>
+      <c r="AA4">
+        <v>8.4659108989804999E-2</v>
+      </c>
+      <c r="AB4">
+        <v>8.7961818413744036E-2</v>
       </c>
     </row>
     <row r="5" spans="2:40" x14ac:dyDescent="0.45">
@@ -2120,14 +2142,14 @@
       </c>
       <c r="D6" cm="1">
         <f t="array" ref="D6">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET(B6, C6)</f>
-        <v>1712</v>
+        <v>36462</v>
       </c>
       <c r="E6">
         <v>0.02</v>
       </c>
       <c r="F6" cm="1">
         <f t="array" ref="F6">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET.SET(D6, E6, $C$2)</f>
-        <v>1712</v>
+        <v>36462</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="1"/>
@@ -2147,14 +2169,14 @@
       </c>
       <c r="D7" cm="1">
         <f t="array" ref="D7">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET(B7, C7)</f>
-        <v>1717</v>
+        <v>36440</v>
       </c>
       <c r="E7">
         <v>0.02</v>
       </c>
       <c r="F7" cm="1">
         <f t="array" ref="F7">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET.SET(D7, E7, $C$2)</f>
-        <v>1717</v>
+        <v>36440</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="1"/>
@@ -2174,14 +2196,14 @@
       </c>
       <c r="D8" cm="1">
         <f t="array" ref="D8">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET(B8, C8)</f>
-        <v>1760</v>
+        <v>36466</v>
       </c>
       <c r="E8">
         <v>0.02</v>
       </c>
       <c r="F8" cm="1">
         <f t="array" ref="F8">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET.SET(D8, E8, $C$2)</f>
-        <v>1760</v>
+        <v>36466</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="1"/>
@@ -2201,14 +2223,14 @@
       </c>
       <c r="D9" cm="1">
         <f t="array" ref="D9">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET(B9, C9)</f>
-        <v>1729</v>
+        <v>36469</v>
       </c>
       <c r="E9">
         <v>0.03</v>
       </c>
       <c r="F9" cm="1">
         <f t="array" ref="F9">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET.SET(D9, E9, $C$2)</f>
-        <v>1729</v>
+        <v>36469</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="1"/>
@@ -2228,14 +2250,14 @@
       </c>
       <c r="D10" cm="1">
         <f t="array" ref="D10">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET(B10, C10)</f>
-        <v>1721</v>
+        <v>36449</v>
       </c>
       <c r="E10">
         <v>0.03</v>
       </c>
       <c r="F10" cm="1">
         <f t="array" ref="F10">_xll.JPMCDS.INSTRUMENT.MONEY.MARKET.SET(D10, E10, $C$2)</f>
-        <v>1721</v>
+        <v>36449</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="1"/>
@@ -2298,14 +2320,14 @@
       </c>
       <c r="D15" cm="1">
         <f t="array" ref="D15">_xll.JPMCDS.INSTRUMENT.INTEREST.RATE.SWAP(B15,C15)</f>
-        <v>1772</v>
+        <v>1386228</v>
       </c>
       <c r="E15">
         <v>0.04</v>
       </c>
       <c r="F15" cm="1">
         <f t="array" ref="F15">_xll.JPMCDS.INSTRUMENT.INTEREST.RATE.SWAP.SET(D15, E15, $C$2)</f>
-        <v>1772</v>
+        <v>1386228</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="1"/>
@@ -2325,14 +2347,14 @@
       </c>
       <c r="D16" cm="1">
         <f t="array" ref="D16">_xll.JPMCDS.INSTRUMENT.INTEREST.RATE.SWAP(B16,C16)</f>
-        <v>1774</v>
+        <v>1386258</v>
       </c>
       <c r="E16">
         <v>0.05</v>
       </c>
       <c r="F16" cm="1">
         <f t="array" ref="F16">_xll.JPMCDS.INSTRUMENT.INTEREST.RATE.SWAP.SET(D16, E16, $C$2)</f>
-        <v>1774</v>
+        <v>1386258</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="1"/>
@@ -2345,21 +2367,21 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" cm="1">
         <f t="array" ref="D17">_xll.JPMCDS.INSTRUMENT.INTEREST.RATE.SWAP(B17,C17)</f>
-        <v>1729</v>
+        <v>1385853</v>
       </c>
       <c r="E17">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="F17" cm="1">
         <f t="array" ref="F17">_xll.JPMCDS.INSTRUMENT.INTEREST.RATE.SWAP.SET(D17, E17, $C$2)</f>
-        <v>1729</v>
+        <v>1385853</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="1"/>
@@ -2597,7 +2619,7 @@
       </c>
       <c r="I40">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H40)</f>
-        <v>5.253277729427408E-2</v>
+        <v>5.2782167835033755E-2</v>
       </c>
     </row>
     <row r="41" spans="8:9" x14ac:dyDescent="0.45">
@@ -2607,7 +2629,7 @@
       </c>
       <c r="I41">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H41)</f>
-        <v>5.3719672799205975E-2</v>
+        <v>5.4626060507124263E-2</v>
       </c>
     </row>
     <row r="42" spans="8:9" x14ac:dyDescent="0.45">
@@ -2617,7 +2639,7 @@
       </c>
       <c r="I42">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H42)</f>
-        <v>5.4846939059917332E-2</v>
+        <v>5.6378379797373368E-2</v>
       </c>
     </row>
     <row r="43" spans="8:9" x14ac:dyDescent="0.45">
@@ -2627,7 +2649,7 @@
       </c>
       <c r="I43">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H43)</f>
-        <v>5.591895899533883E-2</v>
+        <v>5.8045779894823957E-2</v>
       </c>
     </row>
     <row r="44" spans="8:9" x14ac:dyDescent="0.45">
@@ -2637,7 +2659,7 @@
       </c>
       <c r="I44">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H44)</f>
-        <v>5.6939696309899368E-2</v>
+        <v>5.9634285740814974E-2</v>
       </c>
     </row>
     <row r="45" spans="8:9" x14ac:dyDescent="0.45">
@@ -2647,7 +2669,7 @@
       </c>
       <c r="I45">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H45)</f>
-        <v>5.7912744437645713E-2</v>
+        <v>6.1149365667757971E-2</v>
       </c>
     </row>
     <row r="46" spans="8:9" x14ac:dyDescent="0.45">
@@ -2657,7 +2679,7 @@
       </c>
       <c r="I46">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H46)</f>
-        <v>5.884136878648305E-2</v>
+        <v>6.2595994205867367E-2</v>
       </c>
     </row>
     <row r="47" spans="8:9" x14ac:dyDescent="0.45">
@@ -2667,7 +2689,7 @@
       </c>
       <c r="I47">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H47)</f>
-        <v>5.9728543328532169E-2</v>
+        <v>6.3978706575728239E-2</v>
       </c>
     </row>
     <row r="48" spans="8:9" x14ac:dyDescent="0.45">
@@ -2677,7 +2699,7 @@
       </c>
       <c r="I48">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H48)</f>
-        <v>6.0576982400059487E-2</v>
+        <v>6.5301646122648327E-2</v>
       </c>
     </row>
     <row r="49" spans="8:9" x14ac:dyDescent="0.45">
@@ -2687,7 +2709,7 @@
       </c>
       <c r="I49">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H49)</f>
-        <v>6.1389168426969398E-2</v>
+        <v>6.6568605736541553E-2</v>
       </c>
     </row>
     <row r="50" spans="8:9" x14ac:dyDescent="0.45">
@@ -2697,7 +2719,7 @@
       </c>
       <c r="I50">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H50)</f>
-        <v>6.2167376172116429E-2</v>
+        <v>6.7783064128406512E-2</v>
       </c>
     </row>
     <row r="51" spans="8:9" x14ac:dyDescent="0.45">
@@ -2707,7 +2729,7 @@
       </c>
       <c r="I51">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H51)</f>
-        <v>6.2913694003021936E-2</v>
+        <v>6.8948217693240998E-2</v>
       </c>
     </row>
     <row r="52" spans="8:9" x14ac:dyDescent="0.45">
@@ -2717,7 +2739,7 @@
       </c>
       <c r="I52">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H52)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>7.0067008573255318E-2</v>
       </c>
     </row>
     <row r="53" spans="8:9" x14ac:dyDescent="0.45">
@@ -2727,7 +2749,7 @@
       </c>
       <c r="I53">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H53)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>7.1142149439604507E-2</v>
       </c>
     </row>
     <row r="54" spans="8:9" x14ac:dyDescent="0.45">
@@ -2737,7 +2759,7 @@
       </c>
       <c r="I54">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H54)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>7.2176145431635641E-2</v>
       </c>
     </row>
     <row r="55" spans="8:9" x14ac:dyDescent="0.45">
@@ -2747,7 +2769,7 @@
       </c>
       <c r="I55">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H55)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>7.3171313626812173E-2</v>
       </c>
     </row>
     <row r="56" spans="8:9" x14ac:dyDescent="0.45">
@@ -2757,7 +2779,7 @@
       </c>
       <c r="I56">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H56)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>7.4129800359526987E-2</v>
       </c>
     </row>
     <row r="57" spans="8:9" x14ac:dyDescent="0.45">
@@ -2767,7 +2789,7 @@
       </c>
       <c r="I57">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H57)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>7.5053596661007971E-2</v>
       </c>
     </row>
     <row r="58" spans="8:9" x14ac:dyDescent="0.45">
@@ -2777,7 +2799,7 @@
       </c>
       <c r="I58">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H58)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>7.5944552053864411E-2</v>
       </c>
     </row>
     <row r="59" spans="8:9" x14ac:dyDescent="0.45">
@@ -2787,7 +2809,7 @@
       </c>
       <c r="I59">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H59)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>7.6804386902226351E-2</v>
       </c>
     </row>
     <row r="60" spans="8:9" x14ac:dyDescent="0.45">
@@ -2797,7 +2819,7 @@
       </c>
       <c r="I60">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H60)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>7.7634703490867762E-2</v>
       </c>
     </row>
     <row r="61" spans="8:9" x14ac:dyDescent="0.45">
@@ -2807,7 +2829,7 @@
       </c>
       <c r="I61">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H61)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>7.8436995983324653E-2</v>
       </c>
     </row>
     <row r="62" spans="8:9" x14ac:dyDescent="0.45">
@@ -2817,7 +2839,7 @@
       </c>
       <c r="I62">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H62)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>7.9212659389118478E-2</v>
       </c>
     </row>
     <row r="63" spans="8:9" x14ac:dyDescent="0.45">
@@ -2827,7 +2849,7 @@
       </c>
       <c r="I63">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H63)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>7.9962997653223233E-2</v>
       </c>
     </row>
     <row r="64" spans="8:9" x14ac:dyDescent="0.45">
@@ -2837,7 +2859,7 @@
       </c>
       <c r="I64">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H64)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>8.0689230966395353E-2</v>
       </c>
     </row>
     <row r="65" spans="8:9" x14ac:dyDescent="0.45">
@@ -2847,7 +2869,7 @@
       </c>
       <c r="I65">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H65)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>8.1392502382513499E-2</v>
       </c>
     </row>
     <row r="66" spans="8:9" x14ac:dyDescent="0.45">
@@ -2857,7 +2879,7 @@
       </c>
       <c r="I66">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H66)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>8.2073883818372106E-2</v>
       </c>
     </row>
     <row r="67" spans="8:9" x14ac:dyDescent="0.45">
@@ -2867,7 +2889,7 @@
       </c>
       <c r="I67">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H67)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>8.2734381502123311E-2</v>
       </c>
     </row>
     <row r="68" spans="8:9" x14ac:dyDescent="0.45">
@@ -2877,7 +2899,7 @@
       </c>
       <c r="I68">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H68)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>8.3374940928577779E-2</v>
       </c>
     </row>
     <row r="69" spans="8:9" x14ac:dyDescent="0.45">
@@ -2887,7 +2909,7 @@
       </c>
       <c r="I69">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H69)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>8.3996451372660541E-2</v>
       </c>
     </row>
     <row r="70" spans="8:9" x14ac:dyDescent="0.45">
@@ -2897,7 +2919,7 @@
       </c>
       <c r="I70">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H70)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>8.4599750006303376E-2</v>
       </c>
     </row>
     <row r="71" spans="8:9" x14ac:dyDescent="0.45">
@@ -2907,7 +2929,7 @@
       </c>
       <c r="I71">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H71)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>8.5185625658834141E-2</v>
       </c>
     </row>
     <row r="72" spans="8:9" x14ac:dyDescent="0.45">
@@ -2917,7 +2939,7 @@
       </c>
       <c r="I72">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H72)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>8.5754822256363994E-2</v>
       </c>
     </row>
     <row r="73" spans="8:9" x14ac:dyDescent="0.45">
@@ -2927,7 +2949,7 @@
       </c>
       <c r="I73">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H73)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>8.63080419716864E-2</v>
       </c>
     </row>
     <row r="74" spans="8:9" x14ac:dyDescent="0.45">
@@ -2937,7 +2959,7 @@
       </c>
       <c r="I74">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H74)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>8.6845948112721061E-2</v>
       </c>
     </row>
     <row r="75" spans="8:9" x14ac:dyDescent="0.45">
@@ -2947,7 +2969,7 @@
       </c>
       <c r="I75">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H75)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>8.7369167774473455E-2</v>
       </c>
     </row>
     <row r="76" spans="8:9" x14ac:dyDescent="0.45">
@@ -2957,7 +2979,7 @@
       </c>
       <c r="I76">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H76)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>8.787829427679017E-2</v>
       </c>
     </row>
     <row r="77" spans="8:9" x14ac:dyDescent="0.45">
@@ -2967,7 +2989,7 @@
       </c>
       <c r="I77">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H77)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>8.7961818413744036E-2</v>
       </c>
     </row>
     <row r="78" spans="8:9" x14ac:dyDescent="0.45">
@@ -2977,7 +2999,7 @@
       </c>
       <c r="I78">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H78)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>8.7961818413744036E-2</v>
       </c>
     </row>
     <row r="79" spans="8:9" x14ac:dyDescent="0.45">
@@ -2987,7 +3009,7 @@
       </c>
       <c r="I79">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H79)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>8.7961818413744036E-2</v>
       </c>
     </row>
     <row r="80" spans="8:9" x14ac:dyDescent="0.45">
@@ -2997,7 +3019,7 @@
       </c>
       <c r="I80">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H80)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>8.7961818413744036E-2</v>
       </c>
     </row>
     <row r="81" spans="8:9" x14ac:dyDescent="0.45">
@@ -3007,7 +3029,7 @@
       </c>
       <c r="I81">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H81)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>8.7961818413744036E-2</v>
       </c>
     </row>
     <row r="82" spans="8:9" x14ac:dyDescent="0.45">
@@ -3017,7 +3039,7 @@
       </c>
       <c r="I82">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H82)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>8.7961818413744036E-2</v>
       </c>
     </row>
     <row r="83" spans="8:9" x14ac:dyDescent="0.45">
@@ -3027,7 +3049,7 @@
       </c>
       <c r="I83">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H83)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>8.7961818413744036E-2</v>
       </c>
     </row>
     <row r="84" spans="8:9" x14ac:dyDescent="0.45">
@@ -3037,7 +3059,7 @@
       </c>
       <c r="I84">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H84)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>8.7961818413744036E-2</v>
       </c>
     </row>
     <row r="85" spans="8:9" x14ac:dyDescent="0.45">
@@ -3047,7 +3069,7 @@
       </c>
       <c r="I85">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H85)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>8.7961818413744036E-2</v>
       </c>
     </row>
     <row r="86" spans="8:9" x14ac:dyDescent="0.45">
@@ -3057,7 +3079,7 @@
       </c>
       <c r="I86">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H86)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>8.7961818413744036E-2</v>
       </c>
     </row>
     <row r="87" spans="8:9" x14ac:dyDescent="0.45">
@@ -3067,7 +3089,7 @@
       </c>
       <c r="I87">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H87)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>8.7961818413744036E-2</v>
       </c>
     </row>
     <row r="88" spans="8:9" x14ac:dyDescent="0.45">
@@ -3077,7 +3099,7 @@
       </c>
       <c r="I88">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H88)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>8.7961818413744036E-2</v>
       </c>
     </row>
     <row r="89" spans="8:9" x14ac:dyDescent="0.45">
@@ -3087,7 +3109,7 @@
       </c>
       <c r="I89">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H89)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>8.7961818413744036E-2</v>
       </c>
     </row>
     <row r="90" spans="8:9" x14ac:dyDescent="0.45">
@@ -3097,7 +3119,7 @@
       </c>
       <c r="I90">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H90)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>8.7961818413744036E-2</v>
       </c>
     </row>
     <row r="91" spans="8:9" x14ac:dyDescent="0.45">
@@ -3107,7 +3129,7 @@
       </c>
       <c r="I91">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H91)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>8.7961818413744036E-2</v>
       </c>
     </row>
     <row r="92" spans="8:9" x14ac:dyDescent="0.45">
@@ -3117,7 +3139,7 @@
       </c>
       <c r="I92">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H92)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>8.7961818413744036E-2</v>
       </c>
     </row>
     <row r="93" spans="8:9" x14ac:dyDescent="0.45">
@@ -3127,7 +3149,7 @@
       </c>
       <c r="I93">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H93)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>8.7961818413744036E-2</v>
       </c>
     </row>
     <row r="94" spans="8:9" x14ac:dyDescent="0.45">
@@ -3137,7 +3159,7 @@
       </c>
       <c r="I94">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H94)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>8.7961818413744036E-2</v>
       </c>
     </row>
     <row r="95" spans="8:9" x14ac:dyDescent="0.45">
@@ -3147,7 +3169,7 @@
       </c>
       <c r="I95">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H95)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>8.7961818413744036E-2</v>
       </c>
     </row>
     <row r="96" spans="8:9" x14ac:dyDescent="0.45">
@@ -3157,7 +3179,7 @@
       </c>
       <c r="I96">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H96)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>8.7961818413744036E-2</v>
       </c>
     </row>
     <row r="97" spans="8:9" x14ac:dyDescent="0.45">
@@ -3167,7 +3189,7 @@
       </c>
       <c r="I97">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H97)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>8.7961818413744036E-2</v>
       </c>
     </row>
     <row r="98" spans="8:9" x14ac:dyDescent="0.45">
@@ -3177,7 +3199,7 @@
       </c>
       <c r="I98">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H98)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>8.7961818413744036E-2</v>
       </c>
     </row>
     <row r="99" spans="8:9" x14ac:dyDescent="0.45">
@@ -3187,7 +3209,7 @@
       </c>
       <c r="I99">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H99)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>8.7961818413744036E-2</v>
       </c>
     </row>
     <row r="100" spans="8:9" x14ac:dyDescent="0.45">
@@ -3197,7 +3219,7 @@
       </c>
       <c r="I100">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H100)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>8.7961818413744036E-2</v>
       </c>
     </row>
     <row r="101" spans="8:9" x14ac:dyDescent="0.45">
@@ -3207,7 +3229,7 @@
       </c>
       <c r="I101">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H101)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>8.7961818413744036E-2</v>
       </c>
     </row>
     <row r="102" spans="8:9" x14ac:dyDescent="0.45">
@@ -3217,7 +3239,7 @@
       </c>
       <c r="I102">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H102)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>8.7961818413744036E-2</v>
       </c>
     </row>
     <row r="103" spans="8:9" x14ac:dyDescent="0.45">
@@ -3227,7 +3249,7 @@
       </c>
       <c r="I103">
         <f>_xll.JPMCDS.TCURVE.RATE($C$3, H103)</f>
-        <v>6.3489083428538387E-2</v>
+        <v>8.7961818413744036E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3241,8 +3263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3258,9 +3280,9 @@
         <f>B3</f>
         <v>43625</v>
       </c>
-      <c r="E3" t="e" cm="1">
-        <f t="array" aca="1" ref="E3" ca="1">_xll.JPMCDS.TCURVE.RATE(B6, D3)</f>
-        <v>#VALUE!</v>
+      <c r="E3" cm="1">
+        <f t="array" ref="E3">_xll.JPMCDS.TCURVE.RATE($B$6, D3)</f>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.45">
@@ -3271,9 +3293,9 @@
         <f>D3+7</f>
         <v>43632</v>
       </c>
-      <c r="E4" t="e" cm="1">
-        <f t="array" ref="E4">_xll.JPMCDS.TCURVE.RATE(B7, D4)</f>
-        <v>#NUM!</v>
+      <c r="E4" cm="1">
+        <f t="array" ref="E4">_xll.JPMCDS.TCURVE.RATE($B$6, D4)</f>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.45">
@@ -3281,23 +3303,23 @@
         <f>D4+7</f>
         <v>43639</v>
       </c>
-      <c r="E5" t="e" cm="1">
-        <f t="array" ref="E5">_xll.JPMCDS.TCURVE.RATE(B8, D5)</f>
-        <v>#NUM!</v>
+      <c r="E5" cm="1">
+        <f t="array" ref="E5">_xll.JPMCDS.TCURVE.RATE($B$6, D5)</f>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B6" t="e" cm="1">
-        <f t="array" aca="1" ref="B6" ca="1">_xll.JPMCDS.TCURVE(B3, B3+1, B4,RATE_SIMPLE(), _xll.DAY_COUNT_ACT_ACT())</f>
-        <v>#VALUE!</v>
+      <c r="B6" cm="1">
+        <f t="array" ref="B6">_xll.JPMCDS.TCURVE(B3, B3+1, B4,_xll.RATE_SIMPLE_BASIS(), _xll.DAY_COUNT_ACT_ACT())</f>
+        <v>-2413809</v>
       </c>
       <c r="D6" s="1">
         <f>D5+7</f>
         <v>43646</v>
       </c>
-      <c r="E6" t="e" cm="1">
-        <f t="array" ref="E6">_xll.JPMCDS.TCURVE.RATE(B9, D6)</f>
-        <v>#NUM!</v>
+      <c r="E6" cm="1">
+        <f t="array" ref="E6">_xll.JPMCDS.TCURVE.RATE($B$6, D6)</f>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.45">
@@ -3305,9 +3327,9 @@
         <f>D6+7</f>
         <v>43653</v>
       </c>
-      <c r="E7" t="e" cm="1">
-        <f t="array" ref="E7">_xll.JPMCDS.TCURVE.RATE(B10, D7)</f>
-        <v>#NUM!</v>
+      <c r="E7" cm="1">
+        <f t="array" ref="E7">_xll.JPMCDS.TCURVE.RATE($B$6, D7)</f>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
